--- a/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.29680396316759</v>
+        <v>11.29680396316758</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.84899354881932</v>
+        <v>18.84899354881925</v>
       </c>
       <c r="E2">
-        <v>21.50163336330119</v>
+        <v>21.50163336330117</v>
       </c>
       <c r="F2">
-        <v>99.33585624776869</v>
+        <v>99.33585624776862</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>18.56219151981849</v>
+        <v>18.56219151981845</v>
       </c>
       <c r="I2">
-        <v>8.230296992982737</v>
+        <v>8.230296992982762</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>61.46194584409492</v>
+        <v>61.46194584409486</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.55820903844295</v>
+        <v>10.55820903844291</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.51857821999177</v>
+        <v>16.51857821999173</v>
       </c>
       <c r="E3">
-        <v>19.53370603876198</v>
+        <v>19.53370603876193</v>
       </c>
       <c r="F3">
-        <v>87.0863326567825</v>
+        <v>87.08633265678212</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>18.04380937645811</v>
+        <v>18.04380937645827</v>
       </c>
       <c r="I3">
-        <v>7.919172697403194</v>
+        <v>7.919172697403172</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>55.33127794907388</v>
+        <v>55.33127794907377</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.08374644223545</v>
+        <v>10.08374644223546</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.25962172117299</v>
+        <v>15.25962172117306</v>
       </c>
       <c r="E4">
-        <v>18.42250476100336</v>
+        <v>18.42250476100338</v>
       </c>
       <c r="F4">
-        <v>80.4919069493419</v>
+        <v>80.49190694934212</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>17.73152306801697</v>
+        <v>17.73152306801691</v>
       </c>
       <c r="I4">
-        <v>7.740725966467068</v>
+        <v>7.740725966467046</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>51.84226845881243</v>
+        <v>51.84226845881253</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.884955942817703</v>
+        <v>9.884955942817694</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.76801044752003</v>
+        <v>14.76801044751994</v>
       </c>
       <c r="E5">
-        <v>17.97924837773375</v>
+        <v>17.97924837773367</v>
       </c>
       <c r="F5">
-        <v>77.92571051018619</v>
+        <v>77.92571051018601</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17.60712341699321</v>
+        <v>17.60712341699329</v>
       </c>
       <c r="I5">
-        <v>7.66958117649053</v>
+        <v>7.669581176490513</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50.44672207216529</v>
+        <v>50.44672207216524</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.851614186104523</v>
+        <v>9.851614186104509</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.68729878603741</v>
+        <v>14.68729878603738</v>
       </c>
       <c r="E6">
-        <v>17.90597475290507</v>
+        <v>17.90597475290504</v>
       </c>
       <c r="F6">
-        <v>77.50499236038796</v>
+        <v>77.50499236038767</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17.58665792470703</v>
+        <v>17.58665792470713</v>
       </c>
       <c r="I6">
-        <v>7.65783826457033</v>
+        <v>7.657838264570382</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>50.21583940009072</v>
+        <v>50.21583940009061</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.0810877110988</v>
+        <v>10.08108771109874</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.25292296356762</v>
+        <v>15.25292296356778</v>
       </c>
       <c r="E7">
-        <v>18.41650015648706</v>
+        <v>18.41650015648714</v>
       </c>
       <c r="F7">
-        <v>80.45690050805653</v>
+        <v>80.45690050805717</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17.72983288502832</v>
+        <v>17.72983288502824</v>
       </c>
       <c r="I7">
-        <v>7.739761305955762</v>
+        <v>7.739761305955764</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>51.82337694333081</v>
+        <v>51.82337694333103</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,19 +649,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E8">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F8">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I8">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -687,19 +687,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E9">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F9">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I9">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,19 +725,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E10">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F10">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I10">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -763,19 +763,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E11">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F11">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I11">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,19 +801,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E12">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F12">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I12">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,19 +839,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E13">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F13">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I13">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,19 +877,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E14">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F14">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I14">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E15">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F15">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I15">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E16">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F16">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I16">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E17">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F17">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I17">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E18">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F18">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I18">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,19 +1067,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E19">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F19">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I19">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E20">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F20">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I20">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,19 +1143,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E21">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F21">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I21">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E22">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F22">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I22">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,19 +1219,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E23">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F23">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I23">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E24">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F24">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I24">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.04636721307032</v>
+        <v>11.04636721307029</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1295,19 +1295,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E25">
-        <v>20.78899594858026</v>
+        <v>20.78899594858035</v>
       </c>
       <c r="F25">
-        <v>94.81615120369237</v>
+        <v>94.81615120369236</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18.38362821049938</v>
+        <v>18.38362821049944</v>
       </c>
       <c r="I25">
-        <v>8.118843022390394</v>
+        <v>8.118843022390468</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>59.25124013409908</v>
+        <v>59.25124013409906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.29680396316758</v>
+        <v>11.29680396316759</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.84899354881925</v>
+        <v>18.84899354881932</v>
       </c>
       <c r="E2">
-        <v>21.50163336330117</v>
+        <v>21.50163336330119</v>
       </c>
       <c r="F2">
-        <v>99.33585624776862</v>
+        <v>99.33585624776869</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>18.56219151981845</v>
+        <v>18.56219151981849</v>
       </c>
       <c r="I2">
-        <v>8.230296992982762</v>
+        <v>8.230296992982737</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>61.46194584409486</v>
+        <v>61.46194584409492</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.55820903844291</v>
+        <v>10.55820903844295</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.51857821999173</v>
+        <v>16.51857821999177</v>
       </c>
       <c r="E3">
-        <v>19.53370603876193</v>
+        <v>19.53370603876198</v>
       </c>
       <c r="F3">
-        <v>87.08633265678212</v>
+        <v>87.0863326567825</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>18.04380937645827</v>
+        <v>18.04380937645811</v>
       </c>
       <c r="I3">
-        <v>7.919172697403172</v>
+        <v>7.919172697403194</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>55.33127794907377</v>
+        <v>55.33127794907388</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.08374644223546</v>
+        <v>10.08374644223545</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.25962172117306</v>
+        <v>15.25962172117299</v>
       </c>
       <c r="E4">
-        <v>18.42250476100338</v>
+        <v>18.42250476100336</v>
       </c>
       <c r="F4">
-        <v>80.49190694934212</v>
+        <v>80.4919069493419</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>17.73152306801691</v>
+        <v>17.73152306801697</v>
       </c>
       <c r="I4">
-        <v>7.740725966467046</v>
+        <v>7.740725966467068</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>51.84226845881253</v>
+        <v>51.84226845881243</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.884955942817694</v>
+        <v>9.884955942817703</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.76801044751994</v>
+        <v>14.76801044752003</v>
       </c>
       <c r="E5">
-        <v>17.97924837773367</v>
+        <v>17.97924837773375</v>
       </c>
       <c r="F5">
-        <v>77.92571051018601</v>
+        <v>77.92571051018619</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17.60712341699329</v>
+        <v>17.60712341699321</v>
       </c>
       <c r="I5">
-        <v>7.669581176490513</v>
+        <v>7.66958117649053</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50.44672207216524</v>
+        <v>50.44672207216529</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.851614186104509</v>
+        <v>9.851614186104523</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.68729878603738</v>
+        <v>14.68729878603741</v>
       </c>
       <c r="E6">
-        <v>17.90597475290504</v>
+        <v>17.90597475290507</v>
       </c>
       <c r="F6">
-        <v>77.50499236038767</v>
+        <v>77.50499236038796</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17.58665792470713</v>
+        <v>17.58665792470703</v>
       </c>
       <c r="I6">
-        <v>7.657838264570382</v>
+        <v>7.65783826457033</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>50.21583940009061</v>
+        <v>50.21583940009072</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.08108771109874</v>
+        <v>10.0810877110988</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.25292296356778</v>
+        <v>15.25292296356762</v>
       </c>
       <c r="E7">
-        <v>18.41650015648714</v>
+        <v>18.41650015648706</v>
       </c>
       <c r="F7">
-        <v>80.45690050805717</v>
+        <v>80.45690050805653</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17.72983288502824</v>
+        <v>17.72983288502832</v>
       </c>
       <c r="I7">
-        <v>7.739761305955764</v>
+        <v>7.739761305955762</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>51.82337694333103</v>
+        <v>51.82337694333081</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -649,19 +649,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E8">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F8">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I8">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -687,19 +687,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E9">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F9">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I9">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -725,19 +725,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E10">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F10">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I10">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -763,19 +763,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E11">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F11">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I11">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -801,19 +801,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E12">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F12">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I12">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -839,19 +839,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E13">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F13">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I13">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -877,19 +877,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E14">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F14">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I14">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E15">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F15">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I15">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E16">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F16">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I16">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,7 +982,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E17">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F17">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I17">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E18">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F18">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I18">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1067,19 +1067,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E19">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F19">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I19">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E20">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F20">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I20">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,19 +1143,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E21">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F21">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I21">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E22">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F22">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I22">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1219,19 +1219,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E23">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F23">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I23">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E24">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F24">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I24">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.04636721307029</v>
+        <v>11.04636721307032</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1295,19 +1295,19 @@
         <v>17.9895782150885</v>
       </c>
       <c r="E25">
-        <v>20.78899594858035</v>
+        <v>20.78899594858026</v>
       </c>
       <c r="F25">
-        <v>94.81615120369236</v>
+        <v>94.81615120369237</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18.38362821049944</v>
+        <v>18.38362821049938</v>
       </c>
       <c r="I25">
-        <v>8.118843022390468</v>
+        <v>8.118843022390394</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>59.25124013409906</v>
+        <v>59.25124013409908</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.29680396316759</v>
+        <v>11.29476094200411</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.84899354881932</v>
+        <v>18.5161388739287</v>
       </c>
       <c r="E2">
-        <v>21.50163336330119</v>
+        <v>21.214245497074</v>
       </c>
       <c r="F2">
-        <v>99.33585624776869</v>
+        <v>97.95314826189885</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.700760543327213</v>
       </c>
       <c r="H2">
-        <v>18.56219151981849</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.230296992982737</v>
+        <v>18.60472425990402</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.150373840437076</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>61.46194584409492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>60.91113225102566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.55820903844295</v>
+        <v>10.55634667361717</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.51857821999177</v>
+        <v>16.25415955717001</v>
       </c>
       <c r="E3">
-        <v>19.53370603876198</v>
+        <v>19.28523247776738</v>
       </c>
       <c r="F3">
-        <v>87.0863326567825</v>
+        <v>86.08764048875621</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.782702353928904</v>
       </c>
       <c r="H3">
-        <v>18.04380937645811</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.919172697403194</v>
+        <v>18.08513048128063</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.837966078769415</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>55.33127794907388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>54.90836183056078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.08374644223545</v>
+        <v>10.08215662520053</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.25962172117299</v>
+        <v>15.02263680014267</v>
       </c>
       <c r="E4">
-        <v>18.42250476100336</v>
+        <v>18.18599304061445</v>
       </c>
       <c r="F4">
-        <v>80.4919069493419</v>
+        <v>79.65743795170555</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.825396405328465</v>
       </c>
       <c r="H4">
-        <v>17.73152306801697</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>7.740725966467068</v>
+        <v>17.77407416760728</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.657132731668213</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>51.84226845881243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>51.46834215044815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.884955942817703</v>
+        <v>9.883505380470076</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.76801044752003</v>
+        <v>14.54068372985238</v>
       </c>
       <c r="E5">
-        <v>17.97924837773375</v>
+        <v>17.74616489563263</v>
       </c>
       <c r="F5">
-        <v>77.92571051018619</v>
+        <v>77.1512263125328</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.841729067964283</v>
       </c>
       <c r="H5">
-        <v>17.60712341699321</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>7.66958117649053</v>
+        <v>17.65042537765166</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.584810577561639</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>50.44672207216529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>50.08952077713526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.851614186104523</v>
+        <v>9.850188290667614</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.68729878603741</v>
+        <v>14.46151332321501</v>
       </c>
       <c r="E6">
-        <v>17.90597475290507</v>
+        <v>17.67339399359636</v>
       </c>
       <c r="F6">
-        <v>77.50499236038796</v>
+        <v>76.74020290825625</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.844391668059937</v>
       </c>
       <c r="H6">
-        <v>17.58665792470703</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>7.65783826457033</v>
+        <v>17.6300962565685</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.572862426616086</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>50.21583940009072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>49.86127683572094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.0810877110988</v>
+        <v>10.07949966590745</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.25292296356762</v>
+        <v>15.01607300744261</v>
       </c>
       <c r="E7">
-        <v>18.41650015648706</v>
+        <v>18.18003949683591</v>
       </c>
       <c r="F7">
-        <v>80.45690050805653</v>
+        <v>79.62326103496099</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.825620269347016</v>
       </c>
       <c r="H7">
-        <v>17.72983288502832</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7.739761305955762</v>
+        <v>17.77239326688289</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.656152892162867</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>51.82337694333081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>51.44968648871239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E8">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F8">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H8">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E9">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F9">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H9">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E10">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F10">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H10">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E11">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F11">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H11">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E12">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F12">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H12">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E13">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F13">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H13">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E14">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F14">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H14">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E15">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F15">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H15">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E16">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F16">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H16">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E17">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F17">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H17">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E18">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F18">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H18">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E19">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F19">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H19">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E20">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F20">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H20">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E21">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F21">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H21">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E22">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F22">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H22">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E23">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F23">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H23">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E24">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F24">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H24">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>59.25124013409908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>58.75516272624353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.04636721307032</v>
+        <v>11.04433932237828</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.9895782150885</v>
+        <v>17.68565501543081</v>
       </c>
       <c r="E25">
-        <v>20.78899594858026</v>
+        <v>20.51918577827105</v>
       </c>
       <c r="F25">
-        <v>94.81615120369237</v>
+        <v>93.59252909574487</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.731368171761353</v>
       </c>
       <c r="H25">
-        <v>18.38362821049938</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>8.118843022390394</v>
+        <v>18.42506768579872</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.039024673272166</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>59.25124013409908</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>58.75516272624353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.29476094200411</v>
+        <v>17.23529219566502</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.5161388739287</v>
+        <v>3.32752491270828</v>
       </c>
       <c r="E2">
-        <v>21.214245497074</v>
+        <v>18.95184761054725</v>
       </c>
       <c r="F2">
-        <v>97.95314826189885</v>
+        <v>35.52470676293819</v>
       </c>
       <c r="G2">
-        <v>1.700760543327213</v>
+        <v>2.033699335336457</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.60472425990402</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.150373840437076</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>31.16612236928111</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.79393360427557</v>
       </c>
       <c r="M2">
-        <v>60.91113225102566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.58921153790161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.55634667361717</v>
+        <v>16.26560794099972</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16.25415955717001</v>
+        <v>3.426814861932677</v>
       </c>
       <c r="E3">
-        <v>19.28523247776738</v>
+        <v>18.22176504122712</v>
       </c>
       <c r="F3">
-        <v>86.08764048875621</v>
+        <v>33.49863822189641</v>
       </c>
       <c r="G3">
-        <v>1.782702353928904</v>
+        <v>2.046963649340773</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.08513048128063</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.837966078769415</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>29.07562924220089</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.07221779057833</v>
       </c>
       <c r="M3">
-        <v>54.90836183056078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.1642022192734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.08215662520053</v>
+        <v>15.65277734859711</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.02263680014267</v>
+        <v>3.492489423062378</v>
       </c>
       <c r="E4">
-        <v>18.18599304061445</v>
+        <v>17.76354331718745</v>
       </c>
       <c r="F4">
-        <v>79.65743795170555</v>
+        <v>32.25190491167671</v>
       </c>
       <c r="G4">
-        <v>1.825396405328465</v>
+        <v>2.055251875020105</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.77407416760728</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.657132731668213</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>27.72774142213564</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.607425897616576</v>
       </c>
       <c r="M4">
-        <v>51.46834215044815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.29775586787273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.883505380470076</v>
+        <v>15.39885270952505</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14.54068372985238</v>
+        <v>3.520318359730078</v>
       </c>
       <c r="E5">
-        <v>17.74616489563263</v>
+        <v>17.57434780266091</v>
       </c>
       <c r="F5">
-        <v>77.1512263125328</v>
+        <v>31.74350066555781</v>
       </c>
       <c r="G5">
-        <v>1.841729067964283</v>
+        <v>2.058669936687175</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.65042537765166</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.584810577561639</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>27.16205697485534</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.412497083348917</v>
       </c>
       <c r="M5">
-        <v>50.08952077713526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>24.94703098649307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.850188290667614</v>
+        <v>15.35644244652956</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>14.46151332321501</v>
+        <v>3.525000673361591</v>
       </c>
       <c r="E6">
-        <v>17.67339399359636</v>
+        <v>17.54278473497335</v>
       </c>
       <c r="F6">
-        <v>76.74020290825625</v>
+        <v>31.65907190981918</v>
       </c>
       <c r="G6">
-        <v>1.844391668059937</v>
+        <v>2.05924007158991</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.6300962565685</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.572862426616086</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>27.06712822891271</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.379793777021041</v>
       </c>
       <c r="M6">
-        <v>49.86127683572094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>24.88894383193555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.07949966590745</v>
+        <v>15.64936950087313</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>15.01607300744261</v>
+        <v>3.492860557950964</v>
       </c>
       <c r="E7">
-        <v>18.18003949683591</v>
+        <v>17.76100167607272</v>
       </c>
       <c r="F7">
-        <v>79.62326103496099</v>
+        <v>32.24504926592648</v>
       </c>
       <c r="G7">
-        <v>1.825620269347016</v>
+        <v>2.055297802573868</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.77239326688289</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.656152892162867</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>27.72017913016746</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.604819471272204</v>
       </c>
       <c r="M7">
-        <v>51.44968648871239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.29301596869679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.04433932237828</v>
+        <v>16.90466286902688</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.68565501543081</v>
+        <v>3.360703903253516</v>
       </c>
       <c r="E8">
-        <v>20.51918577827105</v>
+        <v>18.70219000411485</v>
       </c>
       <c r="F8">
-        <v>93.59252909574487</v>
+        <v>34.82683609868702</v>
       </c>
       <c r="G8">
-        <v>1.731368171761353</v>
+        <v>2.038245770957228</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>30.45851523015238</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.54953002822418</v>
       </c>
       <c r="M8">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.09620378885078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.04433932237828</v>
+        <v>19.22244374147328</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.68565501543081</v>
+        <v>3.145662133885164</v>
       </c>
       <c r="E9">
-        <v>20.51918577827105</v>
+        <v>20.46939300872135</v>
       </c>
       <c r="F9">
-        <v>93.59252909574487</v>
+        <v>39.86185196066351</v>
       </c>
       <c r="G9">
-        <v>1.731368171761353</v>
+        <v>2.005725978141396</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>35.33079243741653</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.23449164999607</v>
       </c>
       <c r="M9">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>30.69552940186943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.04433932237828</v>
+        <v>20.83446283557327</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.68565501543081</v>
+        <v>3.026623469987238</v>
       </c>
       <c r="E10">
-        <v>20.51918577827105</v>
+        <v>21.72390947745405</v>
       </c>
       <c r="F10">
-        <v>93.59252909574487</v>
+        <v>43.70813079781701</v>
       </c>
       <c r="G10">
-        <v>1.731368171761353</v>
+        <v>1.982036544156326</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>38.62816291447161</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.37728006696174</v>
       </c>
       <c r="M10">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.52359230009498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.04433932237828</v>
+        <v>21.58104134219924</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.68565501543081</v>
+        <v>2.984542706559986</v>
       </c>
       <c r="E11">
-        <v>20.51918577827105</v>
+        <v>22.28703201560553</v>
       </c>
       <c r="F11">
-        <v>93.59252909574487</v>
+        <v>45.51431853418903</v>
       </c>
       <c r="G11">
-        <v>1.731368171761353</v>
+        <v>1.971207404556895</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>40.07266375702551</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.87842509862794</v>
       </c>
       <c r="M11">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.93679426426052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.04433932237828</v>
+        <v>21.87796703976326</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.68565501543081</v>
+        <v>2.970728302191981</v>
       </c>
       <c r="E12">
-        <v>20.51918577827105</v>
+        <v>22.49942867662493</v>
       </c>
       <c r="F12">
-        <v>93.59252909574487</v>
+        <v>46.19705549142554</v>
       </c>
       <c r="G12">
-        <v>1.731368171761353</v>
+        <v>1.967089438433565</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>40.61225325669023</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.06569636633813</v>
       </c>
       <c r="M12">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.47109801266677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.04433932237828</v>
+        <v>21.81419668577779</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.68565501543081</v>
+        <v>2.973602245246643</v>
       </c>
       <c r="E13">
-        <v>20.51918577827105</v>
+        <v>22.45371817302571</v>
       </c>
       <c r="F13">
-        <v>93.59252909574487</v>
+        <v>46.0500542429385</v>
       </c>
       <c r="G13">
-        <v>1.731368171761353</v>
+        <v>1.967977252760712</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>40.4963625540779</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.02547203859223</v>
       </c>
       <c r="M13">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.35605041480253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.04433932237828</v>
+        <v>21.60555014706556</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.68565501543081</v>
+        <v>2.983361218554791</v>
       </c>
       <c r="E14">
-        <v>20.51918577827105</v>
+        <v>22.3045213007138</v>
       </c>
       <c r="F14">
-        <v>93.59252909574487</v>
+        <v>45.57050655435616</v>
       </c>
       <c r="G14">
-        <v>1.731368171761353</v>
+        <v>1.970869022964462</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>40.11720105320436</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.89388095194152</v>
       </c>
       <c r="M14">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.98076396432688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.04433932237828</v>
+        <v>21.47722275261195</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.68565501543081</v>
+        <v>2.989627722861239</v>
       </c>
       <c r="E15">
-        <v>20.51918577827105</v>
+        <v>22.21303228493851</v>
       </c>
       <c r="F15">
-        <v>93.59252909574487</v>
+        <v>45.27663937989028</v>
       </c>
       <c r="G15">
-        <v>1.731368171761353</v>
+        <v>1.972637760864018</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>39.88400696105877</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.812958014268</v>
       </c>
       <c r="M15">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.75080432017905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.04433932237828</v>
+        <v>20.78741667150717</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.68565501543081</v>
+        <v>3.029647694099089</v>
       </c>
       <c r="E16">
-        <v>20.51918577827105</v>
+        <v>21.6869748694165</v>
       </c>
       <c r="F16">
-        <v>93.59252909574487</v>
+        <v>43.58986868750367</v>
       </c>
       <c r="G16">
-        <v>1.731368171761353</v>
+        <v>1.982742407135644</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>38.53269120243581</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.34416798502306</v>
       </c>
       <c r="M16">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.431075324951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.04433932237828</v>
+        <v>20.37297416628453</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.68565501543081</v>
+        <v>3.057541520118543</v>
       </c>
       <c r="E17">
-        <v>20.51918577827105</v>
+        <v>21.36246738166733</v>
       </c>
       <c r="F17">
-        <v>93.59252909574487</v>
+        <v>42.55192024977353</v>
       </c>
       <c r="G17">
-        <v>1.731368171761353</v>
+        <v>1.988921428431535</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>37.68986574724863</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.05191262534265</v>
       </c>
       <c r="M17">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.61914803518323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.04433932237828</v>
+        <v>20.13277761272759</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.68565501543081</v>
+        <v>3.074694221212591</v>
       </c>
       <c r="E18">
-        <v>20.51918577827105</v>
+        <v>21.17508869059377</v>
       </c>
       <c r="F18">
-        <v>93.59252909574487</v>
+        <v>41.95349645785301</v>
       </c>
       <c r="G18">
-        <v>1.731368171761353</v>
+        <v>1.992471140657522</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>37.19983285786654</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.88204048017837</v>
       </c>
       <c r="M18">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.19508313088698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.04433932237828</v>
+        <v>20.0511362569904</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.68565501543081</v>
+        <v>3.080681731218079</v>
       </c>
       <c r="E19">
-        <v>20.51918577827105</v>
+        <v>21.11151384889046</v>
       </c>
       <c r="F19">
-        <v>93.59252909574487</v>
+        <v>41.75061409814236</v>
       </c>
       <c r="G19">
-        <v>1.731368171761353</v>
+        <v>1.993672541705605</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>37.03299658861662</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.82421461354078</v>
       </c>
       <c r="M19">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.05872770382137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.04433932237828</v>
+        <v>20.4172800725645</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.68565501543081</v>
+        <v>3.054454849251521</v>
       </c>
       <c r="E20">
-        <v>20.51918577827105</v>
+        <v>21.39708585586629</v>
       </c>
       <c r="F20">
-        <v>93.59252909574487</v>
+        <v>42.66255357398347</v>
       </c>
       <c r="G20">
-        <v>1.731368171761353</v>
+        <v>1.988264170437974</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>37.78012673518087</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.08320609402723</v>
       </c>
       <c r="M20">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.70568490408557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.04433932237828</v>
+        <v>21.66694371681317</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.68565501543081</v>
+        <v>2.980433783472115</v>
       </c>
       <c r="E21">
-        <v>20.51918577827105</v>
+        <v>22.34836467317277</v>
       </c>
       <c r="F21">
-        <v>93.59252909574487</v>
+        <v>45.7113866305249</v>
       </c>
       <c r="G21">
-        <v>1.731368171761353</v>
+        <v>1.970020191989655</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>40.22876612095209</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.9325986633889</v>
       </c>
       <c r="M21">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.09101104711776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.04433932237828</v>
+        <v>22.52385640008473</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.68565501543081</v>
+        <v>2.94465028645058</v>
       </c>
       <c r="E22">
-        <v>20.51918577827105</v>
+        <v>22.96532268639292</v>
       </c>
       <c r="F22">
-        <v>93.59252909574487</v>
+        <v>47.69740380023283</v>
       </c>
       <c r="G22">
-        <v>1.731368171761353</v>
+        <v>1.957990654612239</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>41.78623020811411</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.47325747602132</v>
       </c>
       <c r="M22">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.64550790551447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.04433932237828</v>
+        <v>22.06858948622845</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.68565501543081</v>
+        <v>2.962449624682066</v>
       </c>
       <c r="E23">
-        <v>20.51918577827105</v>
+        <v>22.63637489807661</v>
       </c>
       <c r="F23">
-        <v>93.59252909574487</v>
+        <v>46.63768272397422</v>
       </c>
       <c r="G23">
-        <v>1.731368171761353</v>
+        <v>1.964424386289554</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>40.95869043178477</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.18595024165423</v>
       </c>
       <c r="M23">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.81596569163946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.04433932237828</v>
+        <v>20.39725538500864</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.68565501543081</v>
+        <v>3.055846884740654</v>
       </c>
       <c r="E24">
-        <v>20.51918577827105</v>
+        <v>21.38143739928683</v>
       </c>
       <c r="F24">
-        <v>93.59252909574487</v>
+        <v>42.61254158334917</v>
       </c>
       <c r="G24">
-        <v>1.731368171761353</v>
+        <v>1.988561324452845</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>37.73933685700604</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.06906409504339</v>
       </c>
       <c r="M24">
-        <v>58.75516272624353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.6665656132257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.04433932237828</v>
+        <v>18.61135431339772</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.68565501543081</v>
+        <v>3.198031544663869</v>
       </c>
       <c r="E25">
-        <v>20.51918577827105</v>
+        <v>19.99948139704848</v>
       </c>
       <c r="F25">
-        <v>93.59252909574487</v>
+        <v>38.50291587051822</v>
       </c>
       <c r="G25">
-        <v>1.731368171761353</v>
+        <v>2.014458945367005</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.42506768579872</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.039024673272166</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>34.06400443044078</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.79595035219913</v>
       </c>
       <c r="M25">
-        <v>58.75516272624353</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>29.71517399804576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.23529219566502</v>
+        <v>24.31785756501662</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.32752491270828</v>
+        <v>2.16423168626013</v>
       </c>
       <c r="E2">
-        <v>18.95184761054725</v>
+        <v>30.93755439804214</v>
       </c>
       <c r="F2">
-        <v>35.52470676293819</v>
+        <v>24.82253004437598</v>
       </c>
       <c r="G2">
-        <v>2.033699335336457</v>
+        <v>36.79505295082205</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.372623469429769</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>69.43069910385765</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>31.16612236928111</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>10.79393360427557</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.58921153790161</v>
+        <v>19.00990756905212</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.26560794099972</v>
+        <v>22.68411345225605</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.426814861932677</v>
+        <v>2.122519041038383</v>
       </c>
       <c r="E3">
-        <v>18.22176504122712</v>
+        <v>28.65423867999858</v>
       </c>
       <c r="F3">
-        <v>33.49863822189641</v>
+        <v>23.05394107770013</v>
       </c>
       <c r="G3">
-        <v>2.046963649340773</v>
+        <v>34.15511877210735</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.908803315204798</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>64.78771038057241</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>29.07562924220089</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>10.07221779057833</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.1642022192734</v>
+        <v>17.64289383230128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.65277734859711</v>
+        <v>21.62318182639429</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.492489423062378</v>
+        <v>2.097533728375473</v>
       </c>
       <c r="E4">
-        <v>17.76354331718745</v>
+        <v>27.189849271831</v>
       </c>
       <c r="F4">
-        <v>32.25190491167671</v>
+        <v>21.91455764494753</v>
       </c>
       <c r="G4">
-        <v>2.055251875020105</v>
+        <v>32.45436817138768</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.619582511969091</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>61.7702325409574</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>27.72774142213564</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9.607425897616576</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.29775586787273</v>
+        <v>16.76129836844328</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.39885270952505</v>
+        <v>21.17618423455038</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.520318359730078</v>
+        <v>2.087506276006343</v>
       </c>
       <c r="E5">
-        <v>17.57434780266091</v>
+        <v>26.57696618080704</v>
       </c>
       <c r="F5">
-        <v>31.74350066555781</v>
+        <v>21.43668347917321</v>
       </c>
       <c r="G5">
-        <v>2.058669936687175</v>
+        <v>31.74099577495946</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.500738049774863</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>60.49838825984555</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>27.16205697485534</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>9.412497083348917</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.94703098649307</v>
+        <v>16.39126991226238</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.35644244652956</v>
+        <v>21.10107177556358</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.525000673361591</v>
+        <v>2.085850470997601</v>
       </c>
       <c r="E6">
-        <v>17.54278473497335</v>
+        <v>26.47421094918229</v>
       </c>
       <c r="F6">
-        <v>31.65907190981918</v>
+        <v>21.356510483231</v>
       </c>
       <c r="G6">
-        <v>2.05924007158991</v>
+        <v>31.62130859795601</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.480948870500052</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>60.28464309963406</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>27.06712822891271</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.379793777021041</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.88894383193555</v>
+        <v>16.32917232608425</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.64936950087313</v>
+        <v>21.6172129738281</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.492860557950964</v>
+        <v>2.097397873411625</v>
       </c>
       <c r="E7">
-        <v>17.76100167607272</v>
+        <v>27.18164958784453</v>
       </c>
       <c r="F7">
-        <v>32.24504926592648</v>
+        <v>21.9081679360316</v>
       </c>
       <c r="G7">
-        <v>2.055297802573868</v>
+        <v>32.44482986447206</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.617983529212049</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>61.75325121813994</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>27.72017913016746</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>9.604819471272204</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.29301596869679</v>
+        <v>16.75635183448619</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.90466286902688</v>
+        <v>23.76646345961786</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.360703903253516</v>
+        <v>2.149716748705501</v>
       </c>
       <c r="E8">
-        <v>18.70219000411485</v>
+        <v>30.16295003140156</v>
       </c>
       <c r="F8">
-        <v>34.82683609868702</v>
+        <v>24.22373356801237</v>
       </c>
       <c r="G8">
-        <v>2.038245770957228</v>
+        <v>35.90121885208334</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.213688181180581</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>67.86420339647036</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>30.45851523015238</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10.54953002822418</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.09620378885078</v>
+        <v>18.54723507259014</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.22244374147328</v>
+        <v>27.52843021193161</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.145662133885164</v>
+        <v>2.257524162052338</v>
       </c>
       <c r="E9">
-        <v>20.46939300872135</v>
+        <v>35.53565962533058</v>
       </c>
       <c r="F9">
-        <v>39.86185196066351</v>
+        <v>28.34745798099233</v>
       </c>
       <c r="G9">
-        <v>2.005725978141396</v>
+        <v>42.05837224899962</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.41351275112119</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>78.54004445614619</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.33079243741653</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>12.23449164999607</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.69552940186943</v>
+        <v>21.73142598679812</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.83446283557327</v>
+        <v>30.02515941378266</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.026623469987238</v>
+        <v>2.340424227385288</v>
       </c>
       <c r="E10">
-        <v>21.72390947745405</v>
+        <v>39.22824871429455</v>
       </c>
       <c r="F10">
-        <v>43.70813079781701</v>
+        <v>31.13496510759985</v>
       </c>
       <c r="G10">
-        <v>1.982036544156326</v>
+        <v>46.22402828101351</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.44107768786063</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>85.60880529061056</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>38.62816291447161</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>13.37728006696174</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.52359230009498</v>
+        <v>23.88264235483553</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.58104134219924</v>
+        <v>31.10503410527765</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.984542706559986</v>
+        <v>2.379119748423872</v>
       </c>
       <c r="E11">
-        <v>22.28703201560553</v>
+        <v>40.8616418252689</v>
       </c>
       <c r="F11">
-        <v>45.51431853418903</v>
+        <v>32.35376212928514</v>
       </c>
       <c r="G11">
-        <v>1.971207404556895</v>
+        <v>48.04676179419457</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.89110708767762</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>88.66174843512327</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>40.07266375702551</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>13.87842509862794</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.93679426426052</v>
+        <v>24.82335668339965</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.87796703976326</v>
+        <v>31.50609682796117</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.970728302191981</v>
+        <v>2.393935072878467</v>
       </c>
       <c r="E12">
-        <v>22.49942867662493</v>
+        <v>41.47436071722512</v>
       </c>
       <c r="F12">
-        <v>46.19705549142554</v>
+        <v>32.80852459811584</v>
       </c>
       <c r="G12">
-        <v>1.967089438433565</v>
+        <v>48.72711522221345</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.05913950096484</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>89.7949056628761</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>40.61225325669023</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>14.06569636633813</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.47109801266677</v>
+        <v>25.17441048528583</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.81419668577779</v>
+        <v>31.42006755568597</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.973602245246643</v>
+        <v>2.390736723125536</v>
       </c>
       <c r="E13">
-        <v>22.45371817302571</v>
+        <v>41.34264413774066</v>
       </c>
       <c r="F13">
-        <v>46.0500542429385</v>
+        <v>32.71087897672273</v>
       </c>
       <c r="G13">
-        <v>1.967977252760712</v>
+        <v>48.5810192726109</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.02305462610471</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>89.55187185858674</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>40.4963625540779</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>14.02547203859223</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.35605041480253</v>
+        <v>25.09903017264224</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.60555014706556</v>
+        <v>31.13818630349792</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.983361218554791</v>
+        <v>2.380335224761629</v>
       </c>
       <c r="E14">
-        <v>22.3045213007138</v>
+        <v>40.91216166863567</v>
       </c>
       <c r="F14">
-        <v>45.57050655435616</v>
+        <v>32.39130943078842</v>
       </c>
       <c r="G14">
-        <v>1.970869022964462</v>
+        <v>48.10292962939938</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.90497823817983</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>88.75543065175417</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>40.11720105320436</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>13.89388095194152</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.98076396432688</v>
+        <v>24.85234010307485</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.47722275261195</v>
+        <v>30.96450739298534</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.989627722861239</v>
+        <v>2.373985838327866</v>
       </c>
       <c r="E15">
-        <v>22.21303228493851</v>
+        <v>40.6477495681749</v>
       </c>
       <c r="F15">
-        <v>45.27663937989028</v>
+        <v>32.19469231260057</v>
       </c>
       <c r="G15">
-        <v>1.972637760864018</v>
+        <v>47.80881614164685</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.83234646593343</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>88.26461613887521</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>39.88400696105877</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>13.812958014268</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.75080432017905</v>
+        <v>24.70057016333872</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.78741667150717</v>
+        <v>29.95347700689892</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.029647694099089</v>
+        <v>2.337916823552748</v>
       </c>
       <c r="E16">
-        <v>21.6869748694165</v>
+        <v>39.12063977260129</v>
       </c>
       <c r="F16">
-        <v>43.58986868750367</v>
+        <v>31.05434852460085</v>
       </c>
       <c r="G16">
-        <v>1.982742407135644</v>
+        <v>46.10349687584603</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.41132664437745</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>85.40605400812093</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>38.53269120243581</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>13.34416798502306</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.431075324951</v>
+        <v>23.82042474532411</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.37297416628453</v>
+        <v>29.31904709826843</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.057541520118543</v>
+        <v>2.316054643615799</v>
       </c>
       <c r="E17">
-        <v>21.36246738166733</v>
+        <v>38.17249920501028</v>
       </c>
       <c r="F17">
-        <v>42.55192024977353</v>
+        <v>30.34237880283517</v>
       </c>
       <c r="G17">
-        <v>1.988921428431535</v>
+        <v>45.03917876416303</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.14866417013891</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>83.61107613539413</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>37.68986574724863</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>13.05191262534265</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.61914803518323</v>
+        <v>23.27096516431292</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.13277761272759</v>
+        <v>28.94886706821209</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.074694221212591</v>
+        <v>2.303571160301904</v>
       </c>
       <c r="E18">
-        <v>21.17508869059377</v>
+        <v>37.62272973925781</v>
       </c>
       <c r="F18">
-        <v>41.95349645785301</v>
+        <v>29.92821543463624</v>
       </c>
       <c r="G18">
-        <v>1.992471140657522</v>
+        <v>44.42017666902684</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.99594023617805</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>82.56331114050352</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>37.19983285786654</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>12.88204048017837</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.19508313088698</v>
+        <v>22.95134644814263</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.0511362569904</v>
+        <v>28.82261968951624</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.080681731218079</v>
+        <v>2.299359566841304</v>
       </c>
       <c r="E19">
-        <v>21.11151384889046</v>
+        <v>37.43580326788921</v>
       </c>
       <c r="F19">
-        <v>41.75061409814236</v>
+        <v>29.78717810882446</v>
       </c>
       <c r="G19">
-        <v>1.993672541705605</v>
+        <v>44.20940485025159</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.94394421608378</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>82.20590737232402</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.03299658861662</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>12.82421461354078</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.05872770382137</v>
+        <v>22.84250567085699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.4172800725645</v>
+        <v>29.38712771213823</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.054454849251521</v>
+        <v>2.318372353107926</v>
       </c>
       <c r="E20">
-        <v>21.39708585586629</v>
+        <v>38.27388244696787</v>
       </c>
       <c r="F20">
-        <v>42.66255357398347</v>
+        <v>30.41864906823037</v>
       </c>
       <c r="G20">
-        <v>1.988264170437974</v>
+        <v>45.15318108972121</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.17679472735958</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>83.80373907579248</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>37.78012673518087</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>13.08320609402723</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.70568490408557</v>
+        <v>23.32982513974612</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.66694371681317</v>
+        <v>31.22119358573332</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.980433783472115</v>
+        <v>2.383385801990081</v>
       </c>
       <c r="E21">
-        <v>22.34836467317277</v>
+        <v>41.03875504055195</v>
       </c>
       <c r="F21">
-        <v>45.7113866305249</v>
+        <v>32.48535575957733</v>
       </c>
       <c r="G21">
-        <v>1.970020191989655</v>
+        <v>48.24361975219639</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.93972378429002</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>88.98998307435141</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>40.22876612095209</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>13.9325986633889</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.09101104711776</v>
+        <v>24.92493703555136</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.52385640008473</v>
+        <v>32.37412346042078</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.94465028645058</v>
+        <v>2.426835124663548</v>
       </c>
       <c r="E22">
-        <v>22.96532268639292</v>
+        <v>42.81238247140254</v>
       </c>
       <c r="F22">
-        <v>47.69740380023283</v>
+        <v>33.79678858749871</v>
       </c>
       <c r="G22">
-        <v>1.957990654612239</v>
+        <v>50.20612434330766</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.42451617693132</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>92.24610226002383</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>41.78623020811411</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>14.47325747602132</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.64550790551447</v>
+        <v>25.9374278696955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.06858948622845</v>
+        <v>31.76290705893638</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.962449624682066</v>
+        <v>2.403549218514468</v>
       </c>
       <c r="E23">
-        <v>22.63637489807661</v>
+        <v>41.86849899083173</v>
       </c>
       <c r="F23">
-        <v>46.63768272397422</v>
+        <v>33.10033093101019</v>
       </c>
       <c r="G23">
-        <v>1.964424386289554</v>
+        <v>49.16375132086875</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.16699370116517</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>90.52029302560385</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>40.95869043178477</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>14.18595024165423</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.81596569163946</v>
+        <v>25.39968849520768</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.39725538500864</v>
+        <v>29.35636541739263</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.055846884740654</v>
+        <v>2.317324252194473</v>
       </c>
       <c r="E24">
-        <v>21.38143739928683</v>
+        <v>38.22806169476726</v>
       </c>
       <c r="F24">
-        <v>42.61254158334917</v>
+        <v>30.38418238760744</v>
       </c>
       <c r="G24">
-        <v>1.988561324452845</v>
+        <v>45.10166282666621</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.16408225555713</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>83.71668543464122</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>37.73933685700604</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>13.06906409504339</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.6665656132257</v>
+        <v>23.30322617409375</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.61135431339772</v>
+        <v>26.55830670834304</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.198031544663869</v>
+        <v>2.227758591924818</v>
       </c>
       <c r="E25">
-        <v>19.99948139704848</v>
+        <v>34.12963562220383</v>
       </c>
       <c r="F25">
-        <v>38.50291587051822</v>
+        <v>27.27540407321641</v>
       </c>
       <c r="G25">
-        <v>2.014458945367005</v>
+        <v>40.45721875450876</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.041757576016</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>75.78973891881813</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>34.06400443044078</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>11.79595035219913</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.71517399804576</v>
+        <v>20.90398045560058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31785756501662</v>
+        <v>15.46388812271717</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.16423168626013</v>
+        <v>3.332866452911979</v>
       </c>
       <c r="E2">
-        <v>30.93755439804214</v>
+        <v>16.7405582290129</v>
       </c>
       <c r="F2">
-        <v>24.82253004437598</v>
+        <v>18.35869918359322</v>
       </c>
       <c r="G2">
-        <v>36.79505295082205</v>
+        <v>21.97987378217738</v>
       </c>
       <c r="H2">
-        <v>9.372623469429769</v>
+        <v>10.62994996385521</v>
       </c>
       <c r="I2">
-        <v>69.43069910385765</v>
+        <v>42.00370031271751</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.00990756905212</v>
+        <v>15.51357751095988</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225605</v>
+        <v>14.62529716494162</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.122519041038383</v>
+        <v>3.331906116542084</v>
       </c>
       <c r="E3">
-        <v>28.65423867999858</v>
+        <v>15.77358072534926</v>
       </c>
       <c r="F3">
-        <v>23.05394107770013</v>
+        <v>17.85750361967092</v>
       </c>
       <c r="G3">
-        <v>34.15511877210735</v>
+        <v>20.88400046637141</v>
       </c>
       <c r="H3">
-        <v>8.908803315204798</v>
+        <v>10.56398091616973</v>
       </c>
       <c r="I3">
-        <v>64.78771038057241</v>
+        <v>39.58439637612544</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.64289383230128</v>
+        <v>15.21194444154728</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639429</v>
+        <v>14.08227189835594</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.097533728375473</v>
+        <v>3.331667210034011</v>
       </c>
       <c r="E4">
-        <v>27.189849271831</v>
+        <v>15.15375536400619</v>
       </c>
       <c r="F4">
-        <v>21.91455764494753</v>
+        <v>17.54855801098144</v>
       </c>
       <c r="G4">
-        <v>32.45436817138768</v>
+        <v>20.18742174270481</v>
       </c>
       <c r="H4">
-        <v>8.619582511969091</v>
+        <v>10.52596340044021</v>
       </c>
       <c r="I4">
-        <v>61.7702325409574</v>
+        <v>38.02187358361297</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.76129836844328</v>
+        <v>15.02856969616999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455038</v>
+        <v>13.85402509196118</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.087506276006343</v>
+        <v>3.33165832644058</v>
       </c>
       <c r="E5">
-        <v>26.57696618080704</v>
+        <v>14.89487218464948</v>
       </c>
       <c r="F5">
-        <v>21.43668347917321</v>
+        <v>17.4225731203034</v>
       </c>
       <c r="G5">
-        <v>31.74099577495946</v>
+        <v>19.89801699846327</v>
       </c>
       <c r="H5">
-        <v>8.500738049774863</v>
+        <v>10.51110920613297</v>
       </c>
       <c r="I5">
-        <v>60.49838825984555</v>
+        <v>37.36626242888532</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.39126991226238</v>
+        <v>14.9544145422213</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556358</v>
+        <v>13.81570835831321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.085850470997601</v>
+        <v>3.331662202569909</v>
       </c>
       <c r="E6">
-        <v>26.47421094918229</v>
+        <v>14.85151310981644</v>
       </c>
       <c r="F6">
-        <v>21.356510483231</v>
+        <v>17.40165469098864</v>
       </c>
       <c r="G6">
-        <v>31.62130859795601</v>
+        <v>19.84964027438417</v>
       </c>
       <c r="H6">
-        <v>8.480948870500052</v>
+        <v>10.50868157673871</v>
       </c>
       <c r="I6">
-        <v>60.28464309963406</v>
+        <v>37.25627603765865</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.32917232608425</v>
+        <v>14.94213892303543</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.6172129738281</v>
+        <v>14.07922169308636</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.097397873411625</v>
+        <v>3.331666731627296</v>
       </c>
       <c r="E7">
-        <v>27.18164958784453</v>
+        <v>15.1502890936753</v>
       </c>
       <c r="F7">
-        <v>21.9081679360316</v>
+        <v>17.54685899359088</v>
       </c>
       <c r="G7">
-        <v>32.44482986447206</v>
+        <v>20.18354057289569</v>
       </c>
       <c r="H7">
-        <v>8.617983529212049</v>
+        <v>10.52576047143519</v>
       </c>
       <c r="I7">
-        <v>61.75325121813994</v>
+        <v>38.01310743513349</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.75635183448619</v>
+        <v>15.02756715204569</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961786</v>
+        <v>15.18063999774328</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.149716748705501</v>
+        <v>3.332462701585339</v>
       </c>
       <c r="E8">
-        <v>30.16295003140156</v>
+        <v>16.41270293448153</v>
       </c>
       <c r="F8">
-        <v>24.22373356801237</v>
+        <v>18.18626524397519</v>
       </c>
       <c r="G8">
-        <v>35.90121885208334</v>
+        <v>21.60716863689971</v>
       </c>
       <c r="H8">
-        <v>9.213688181180581</v>
+        <v>10.60669544107147</v>
       </c>
       <c r="I8">
-        <v>67.86420339647036</v>
+        <v>41.18578900812587</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.54723507259014</v>
+        <v>15.4092615210346</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193161</v>
+        <v>17.11354650569201</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.257524162052338</v>
+        <v>3.336794265068324</v>
       </c>
       <c r="E9">
-        <v>35.53565962533058</v>
+        <v>18.83526645892429</v>
       </c>
       <c r="F9">
-        <v>28.34745798099233</v>
+        <v>19.42152583551522</v>
       </c>
       <c r="G9">
-        <v>42.05837224899962</v>
+        <v>24.19549305282739</v>
       </c>
       <c r="H9">
-        <v>10.41351275112119</v>
+        <v>10.78454097625027</v>
       </c>
       <c r="I9">
-        <v>78.54004445614619</v>
+        <v>46.77879708202151</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.73142598679812</v>
+        <v>16.16742811790309</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.02515941378266</v>
+        <v>18.39153772040988</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.340424227385288</v>
+        <v>3.341648870266802</v>
       </c>
       <c r="E10">
-        <v>39.22824871429455</v>
+        <v>20.51580639411464</v>
       </c>
       <c r="F10">
-        <v>31.13496510759985</v>
+        <v>20.30649208104569</v>
       </c>
       <c r="G10">
-        <v>46.22402828101351</v>
+        <v>25.95640391697248</v>
       </c>
       <c r="H10">
-        <v>11.44107768786063</v>
+        <v>10.92598972804872</v>
       </c>
       <c r="I10">
-        <v>85.60880529061056</v>
+        <v>50.48748964831373</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.88264235483553</v>
+        <v>16.72400890826519</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10503410527765</v>
+        <v>18.94157951104755</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.379119748423872</v>
+        <v>3.344216520351163</v>
       </c>
       <c r="E11">
-        <v>40.8616418252689</v>
+        <v>21.23749084471423</v>
       </c>
       <c r="F11">
-        <v>32.35376212928514</v>
+        <v>20.70207008789831</v>
       </c>
       <c r="G11">
-        <v>48.04676179419457</v>
+        <v>26.72430725654529</v>
       </c>
       <c r="H11">
-        <v>11.89110708767762</v>
+        <v>10.99247610726923</v>
       </c>
       <c r="I11">
-        <v>88.66174843512327</v>
+        <v>52.08534703260537</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.82335668339965</v>
+        <v>16.97584131324049</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50609682796117</v>
+        <v>19.14533481163442</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.393935072878467</v>
+        <v>3.345240104828057</v>
       </c>
       <c r="E12">
-        <v>41.47436071722512</v>
+        <v>21.50465745367265</v>
       </c>
       <c r="F12">
-        <v>32.80852459811584</v>
+        <v>20.85070168403498</v>
       </c>
       <c r="G12">
-        <v>48.72711522221345</v>
+        <v>27.01015662864143</v>
       </c>
       <c r="H12">
-        <v>12.05913950096484</v>
+        <v>11.01794236505454</v>
       </c>
       <c r="I12">
-        <v>89.7949056628761</v>
+        <v>52.67744494454099</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.17441048528583</v>
+        <v>17.07090818264913</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.42006755568597</v>
+        <v>19.10165446781605</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.390736723125536</v>
+        <v>3.345017383736601</v>
       </c>
       <c r="E13">
-        <v>41.34264413774066</v>
+        <v>21.44738995832763</v>
       </c>
       <c r="F13">
-        <v>32.71087897672273</v>
+        <v>20.81874541673822</v>
       </c>
       <c r="G13">
-        <v>48.5810192726109</v>
+        <v>26.94881594057337</v>
       </c>
       <c r="H13">
-        <v>12.02305462610471</v>
+        <v>11.01244518410014</v>
       </c>
       <c r="I13">
-        <v>89.55187185858674</v>
+        <v>52.55050504930303</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.09903017264224</v>
+        <v>17.05044857741606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.13818630349792</v>
+        <v>18.95843357864365</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.380335224761629</v>
+        <v>3.344299706018385</v>
       </c>
       <c r="E14">
-        <v>40.91216166863567</v>
+        <v>21.25959324810564</v>
       </c>
       <c r="F14">
-        <v>32.39130943078842</v>
+        <v>20.71432231239457</v>
       </c>
       <c r="G14">
-        <v>48.10292962939938</v>
+        <v>26.74792412138484</v>
       </c>
       <c r="H14">
-        <v>11.90497823817983</v>
+        <v>10.99456554138558</v>
       </c>
       <c r="I14">
-        <v>88.75543065175417</v>
+        <v>52.13432002565632</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.85234010307485</v>
+        <v>16.98366902686251</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96450739298534</v>
+        <v>18.87011552320599</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.373985838327866</v>
+        <v>3.343866772780879</v>
       </c>
       <c r="E15">
-        <v>40.6477495681749</v>
+        <v>21.14376642488964</v>
       </c>
       <c r="F15">
-        <v>32.19469231260057</v>
+        <v>20.65020392082526</v>
       </c>
       <c r="G15">
-        <v>47.80881614164685</v>
+        <v>26.62422428068378</v>
       </c>
       <c r="H15">
-        <v>11.83234646593343</v>
+        <v>10.98365086186756</v>
       </c>
       <c r="I15">
-        <v>88.26461613887521</v>
+        <v>51.87770123785431</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.70057016333872</v>
+        <v>16.94272308504471</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95347700689892</v>
+        <v>18.3549581758265</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.337916823552748</v>
+        <v>3.341488264673342</v>
       </c>
       <c r="E16">
-        <v>39.12063977260129</v>
+        <v>20.46778435323411</v>
       </c>
       <c r="F16">
-        <v>31.05434852460085</v>
+        <v>20.28048541154647</v>
       </c>
       <c r="G16">
-        <v>46.10349687584603</v>
+        <v>25.9055371870232</v>
       </c>
       <c r="H16">
-        <v>11.41132664437745</v>
+        <v>10.921686192136</v>
       </c>
       <c r="I16">
-        <v>85.40605400812093</v>
+        <v>50.38125698588405</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.82042474532411</v>
+        <v>16.70751495472316</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.31904709826843</v>
+        <v>18.03087938850338</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.316054643615799</v>
+        <v>3.340120871658005</v>
       </c>
       <c r="E17">
-        <v>38.17249920501028</v>
+        <v>20.04215383634661</v>
       </c>
       <c r="F17">
-        <v>30.34237880283517</v>
+        <v>20.05176529754235</v>
       </c>
       <c r="G17">
-        <v>45.03917876416303</v>
+        <v>25.45602378938278</v>
       </c>
       <c r="H17">
-        <v>11.14866417013891</v>
+        <v>10.88420815208812</v>
       </c>
       <c r="I17">
-        <v>83.61107613539413</v>
+        <v>49.44026495104949</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.27096516431292</v>
+        <v>16.56280069720605</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.94886706821209</v>
+        <v>17.84153069387959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.303571160301904</v>
+        <v>3.339368223788723</v>
       </c>
       <c r="E18">
-        <v>37.62272973925781</v>
+        <v>19.79331164051828</v>
       </c>
       <c r="F18">
-        <v>29.92821543463624</v>
+        <v>19.91956150706805</v>
       </c>
       <c r="G18">
-        <v>44.42017666902684</v>
+        <v>25.19436406922753</v>
       </c>
       <c r="H18">
-        <v>10.99594023617805</v>
+        <v>10.86285440835427</v>
       </c>
       <c r="I18">
-        <v>82.56331114050352</v>
+        <v>48.89063678530206</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.95134644814263</v>
+        <v>16.47944270756341</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.82261968951624</v>
+        <v>17.77691535278072</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.299359566841304</v>
+        <v>3.339119213877821</v>
       </c>
       <c r="E19">
-        <v>37.43580326788921</v>
+        <v>19.70836458320055</v>
       </c>
       <c r="F19">
-        <v>29.78717810882446</v>
+        <v>19.87469300417116</v>
       </c>
       <c r="G19">
-        <v>44.20940485025159</v>
+        <v>25.10524197005105</v>
       </c>
       <c r="H19">
-        <v>10.94394421608378</v>
+        <v>10.85565975489246</v>
       </c>
       <c r="I19">
-        <v>82.20590737232402</v>
+        <v>48.7031053676155</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.84250567085699</v>
+        <v>16.45120130807218</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.38712771213823</v>
+        <v>18.06568338928438</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.318372353107926</v>
+        <v>3.340262933356617</v>
       </c>
       <c r="E20">
-        <v>38.27388244696787</v>
+        <v>20.08787984548762</v>
       </c>
       <c r="F20">
-        <v>30.41864906823037</v>
+        <v>20.07618141573258</v>
       </c>
       <c r="G20">
-        <v>45.15318108972121</v>
+        <v>25.50419863862297</v>
       </c>
       <c r="H20">
-        <v>11.17679472735958</v>
+        <v>10.88817691407267</v>
       </c>
       <c r="I20">
-        <v>83.80373907579248</v>
+        <v>49.54130510666898</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.32982513974612</v>
+        <v>16.57821917134406</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22119358573332</v>
+        <v>19.00062425561376</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.383385801990081</v>
+        <v>3.344509117089792</v>
       </c>
       <c r="E21">
-        <v>41.03875504055195</v>
+        <v>21.31491949976721</v>
       </c>
       <c r="F21">
-        <v>32.48535575957733</v>
+        <v>20.74502673075174</v>
       </c>
       <c r="G21">
-        <v>48.24361975219639</v>
+        <v>26.80706618550222</v>
       </c>
       <c r="H21">
-        <v>11.93972378429002</v>
+        <v>10.99980952428328</v>
       </c>
       <c r="I21">
-        <v>88.98998307435141</v>
+        <v>52.25691677039583</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.92493703555136</v>
+        <v>17.00329262939363</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.37412346042078</v>
+        <v>19.58522931221873</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.426835124663548</v>
+        <v>3.347582896093313</v>
       </c>
       <c r="E22">
-        <v>42.81238247140254</v>
+        <v>22.08120714169245</v>
       </c>
       <c r="F22">
-        <v>33.79678858749871</v>
+        <v>21.17530009767951</v>
       </c>
       <c r="G22">
-        <v>50.20612434330766</v>
+        <v>27.62971804028947</v>
       </c>
       <c r="H22">
-        <v>12.42451617693132</v>
+        <v>11.07444526050048</v>
       </c>
       <c r="I22">
-        <v>92.24610226002383</v>
+        <v>53.9560509119212</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.9374278696955</v>
+        <v>17.27933077334015</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.76290705893638</v>
+        <v>19.27564066207565</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.403549218514468</v>
+        <v>3.345915169760891</v>
       </c>
       <c r="E23">
-        <v>41.86849899083173</v>
+        <v>21.67547575067288</v>
       </c>
       <c r="F23">
-        <v>33.10033093101019</v>
+        <v>20.94633133710848</v>
       </c>
       <c r="G23">
-        <v>49.16375132086875</v>
+        <v>27.19334216302269</v>
       </c>
       <c r="H23">
-        <v>12.16699370116517</v>
+        <v>11.03446353262154</v>
       </c>
       <c r="I23">
-        <v>90.52029302560385</v>
+        <v>53.05615300520156</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.39968849520768</v>
+        <v>17.13219820137929</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.35636541739263</v>
+        <v>18.04995794057753</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.317324252194473</v>
+        <v>3.340198602956222</v>
       </c>
       <c r="E24">
-        <v>38.22806169476726</v>
+        <v>20.06722001980252</v>
       </c>
       <c r="F24">
-        <v>30.38418238760744</v>
+        <v>20.06514508651011</v>
       </c>
       <c r="G24">
-        <v>45.10166282666621</v>
+        <v>25.48242883184155</v>
       </c>
       <c r="H24">
-        <v>11.16408225555713</v>
+        <v>10.88638203454029</v>
       </c>
       <c r="I24">
-        <v>83.71668543464122</v>
+        <v>49.49565175058866</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.30322617409375</v>
+        <v>16.5712489692286</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.55830670834304</v>
+        <v>16.61539234780995</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.227758591924818</v>
+        <v>3.335327506432339</v>
       </c>
       <c r="E25">
-        <v>34.12963562220383</v>
+        <v>18.17820302606687</v>
       </c>
       <c r="F25">
-        <v>27.27540407321641</v>
+        <v>19.09055749939812</v>
       </c>
       <c r="G25">
-        <v>40.45721875450876</v>
+        <v>23.51897299350288</v>
       </c>
       <c r="H25">
-        <v>10.041757576016</v>
+        <v>10.73446794358163</v>
       </c>
       <c r="I25">
-        <v>75.78973891881813</v>
+        <v>45.33509062920486</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.90398045560058</v>
+        <v>15.96195547730644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.46388812271717</v>
+        <v>24.31785756501655</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.332866452911979</v>
+        <v>2.16423168626013</v>
       </c>
       <c r="E2">
-        <v>16.7405582290129</v>
+        <v>30.93755439804213</v>
       </c>
       <c r="F2">
-        <v>18.35869918359322</v>
+        <v>24.82253004437597</v>
       </c>
       <c r="G2">
-        <v>21.97987378217738</v>
+        <v>36.79505295082199</v>
       </c>
       <c r="H2">
-        <v>10.62994996385521</v>
+        <v>9.372623469429763</v>
       </c>
       <c r="I2">
-        <v>42.00370031271751</v>
+        <v>69.43069910385718</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.51357751095988</v>
+        <v>19.00990756905208</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.62529716494162</v>
+        <v>22.68411345225612</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.331906116542084</v>
+        <v>2.122519041038498</v>
       </c>
       <c r="E3">
-        <v>15.77358072534926</v>
+        <v>28.65423867999851</v>
       </c>
       <c r="F3">
-        <v>17.85750361967092</v>
+        <v>23.05394107770008</v>
       </c>
       <c r="G3">
-        <v>20.88400046637141</v>
+        <v>34.15511877210732</v>
       </c>
       <c r="H3">
-        <v>10.56398091616973</v>
+        <v>8.908803315204793</v>
       </c>
       <c r="I3">
-        <v>39.58439637612544</v>
+        <v>64.78771038057258</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.21194444154728</v>
+        <v>17.64289383230128</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.08227189835594</v>
+        <v>21.62318182639427</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.331667210034011</v>
+        <v>2.097533728375469</v>
       </c>
       <c r="E4">
-        <v>15.15375536400619</v>
+        <v>27.18984927183106</v>
       </c>
       <c r="F4">
-        <v>17.54855801098144</v>
+        <v>21.91455764494751</v>
       </c>
       <c r="G4">
-        <v>20.18742174270481</v>
+        <v>32.45436817138769</v>
       </c>
       <c r="H4">
-        <v>10.52596340044021</v>
+        <v>8.619582511969091</v>
       </c>
       <c r="I4">
-        <v>38.02187358361297</v>
+        <v>61.77023254095738</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.02856969616999</v>
+        <v>16.76129836844328</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.85402509196118</v>
+        <v>21.17618423455042</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.33165832644058</v>
+        <v>2.087506276006406</v>
       </c>
       <c r="E5">
-        <v>14.89487218464948</v>
+        <v>26.57696618080699</v>
       </c>
       <c r="F5">
-        <v>17.4225731203034</v>
+        <v>21.43668347917318</v>
       </c>
       <c r="G5">
-        <v>19.89801699846327</v>
+        <v>31.74099577495942</v>
       </c>
       <c r="H5">
-        <v>10.51110920613297</v>
+        <v>8.500738049774901</v>
       </c>
       <c r="I5">
-        <v>37.36626242888532</v>
+        <v>60.4983882598456</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.9544145422213</v>
+        <v>16.39126991226236</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.81570835831321</v>
+        <v>21.10107177556363</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.331662202569909</v>
+        <v>2.085850470997481</v>
       </c>
       <c r="E6">
-        <v>14.85151310981644</v>
+        <v>26.47421094918228</v>
       </c>
       <c r="F6">
-        <v>17.40165469098864</v>
+        <v>21.35651048323104</v>
       </c>
       <c r="G6">
-        <v>19.84964027438417</v>
+        <v>31.62130859795608</v>
       </c>
       <c r="H6">
-        <v>10.50868157673871</v>
+        <v>8.480948870500084</v>
       </c>
       <c r="I6">
-        <v>37.25627603765865</v>
+        <v>60.2846430996342</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.94213892303543</v>
+        <v>16.32917232608428</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.07922169308636</v>
+        <v>21.61721297382809</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.331666731627296</v>
+        <v>2.097397873411616</v>
       </c>
       <c r="E7">
-        <v>15.1502890936753</v>
+        <v>27.18164958784457</v>
       </c>
       <c r="F7">
-        <v>17.54685899359088</v>
+        <v>21.90816793603158</v>
       </c>
       <c r="G7">
-        <v>20.18354057289569</v>
+        <v>32.44482986447203</v>
       </c>
       <c r="H7">
-        <v>10.52576047143519</v>
+        <v>8.61798352921204</v>
       </c>
       <c r="I7">
-        <v>38.01310743513349</v>
+        <v>61.75325121813999</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.02756715204569</v>
+        <v>16.75635183448618</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.18063999774328</v>
+        <v>23.7664634596178</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.332462701585339</v>
+        <v>2.149716748705492</v>
       </c>
       <c r="E8">
-        <v>16.41270293448153</v>
+        <v>30.16295003140155</v>
       </c>
       <c r="F8">
-        <v>18.18626524397519</v>
+        <v>24.22373356801236</v>
       </c>
       <c r="G8">
-        <v>21.60716863689971</v>
+        <v>35.9012188520833</v>
       </c>
       <c r="H8">
-        <v>10.60669544107147</v>
+        <v>9.213688181180588</v>
       </c>
       <c r="I8">
-        <v>41.18578900812587</v>
+        <v>67.86420339647047</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.4092615210346</v>
+        <v>18.54723507259014</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.11354650569201</v>
+        <v>27.52843021193151</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.336794265068324</v>
+        <v>2.257524162052197</v>
       </c>
       <c r="E9">
-        <v>18.83526645892429</v>
+        <v>35.53565962533064</v>
       </c>
       <c r="F9">
-        <v>19.42152583551522</v>
+        <v>28.34745798099243</v>
       </c>
       <c r="G9">
-        <v>24.19549305282739</v>
+        <v>42.05837224899967</v>
       </c>
       <c r="H9">
-        <v>10.78454097625027</v>
+        <v>10.41351275112119</v>
       </c>
       <c r="I9">
-        <v>46.77879708202151</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.16742811790309</v>
+        <v>21.73142598679816</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.39153772040988</v>
+        <v>30.02515941378264</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.341648870266802</v>
+        <v>2.340424227385183</v>
       </c>
       <c r="E10">
-        <v>20.51580639411464</v>
+        <v>39.22824871429451</v>
       </c>
       <c r="F10">
-        <v>20.30649208104569</v>
+        <v>31.13496510759985</v>
       </c>
       <c r="G10">
-        <v>25.95640391697248</v>
+        <v>46.22402828101346</v>
       </c>
       <c r="H10">
-        <v>10.92598972804872</v>
+        <v>11.44107768786063</v>
       </c>
       <c r="I10">
-        <v>50.48748964831373</v>
+        <v>85.60880529061026</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.72400890826519</v>
+        <v>23.8826423548355</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.94157951104755</v>
+        <v>31.10503410527765</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.344216520351163</v>
+        <v>2.379119748423768</v>
       </c>
       <c r="E11">
-        <v>21.23749084471423</v>
+        <v>40.86164182526893</v>
       </c>
       <c r="F11">
-        <v>20.70207008789831</v>
+        <v>32.35376212928512</v>
       </c>
       <c r="G11">
-        <v>26.72430725654529</v>
+        <v>48.04676179419457</v>
       </c>
       <c r="H11">
-        <v>10.99247610726923</v>
+        <v>11.89110708767762</v>
       </c>
       <c r="I11">
-        <v>52.08534703260537</v>
+        <v>88.66174843512329</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.97584131324049</v>
+        <v>24.82335668339963</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.14533481163442</v>
+        <v>31.50609682796114</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.345240104828057</v>
+        <v>2.393935072878421</v>
       </c>
       <c r="E12">
-        <v>21.50465745367265</v>
+        <v>41.47436071722513</v>
       </c>
       <c r="F12">
-        <v>20.85070168403498</v>
+        <v>32.80852459811591</v>
       </c>
       <c r="G12">
-        <v>27.01015662864143</v>
+        <v>48.72711522221348</v>
       </c>
       <c r="H12">
-        <v>11.01794236505454</v>
+        <v>12.05913950096484</v>
       </c>
       <c r="I12">
-        <v>52.67744494454099</v>
+        <v>89.79490566287599</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.07090818264913</v>
+        <v>25.17441048528586</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.10165446781605</v>
+        <v>31.42006755568587</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.345017383736601</v>
+        <v>2.390736723125324</v>
       </c>
       <c r="E13">
-        <v>21.44738995832763</v>
+        <v>41.34264413774066</v>
       </c>
       <c r="F13">
-        <v>20.81874541673822</v>
+        <v>32.71087897672281</v>
       </c>
       <c r="G13">
-        <v>26.94881594057337</v>
+        <v>48.58101927261097</v>
       </c>
       <c r="H13">
-        <v>11.01244518410014</v>
+        <v>12.02305462610473</v>
       </c>
       <c r="I13">
-        <v>52.55050504930303</v>
+        <v>89.55187185858654</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.05044857741606</v>
+        <v>25.09903017264229</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.95843357864365</v>
+        <v>31.138186303498</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.344299706018385</v>
+        <v>2.380335224761687</v>
       </c>
       <c r="E14">
-        <v>21.25959324810564</v>
+        <v>40.91216166863577</v>
       </c>
       <c r="F14">
-        <v>20.71432231239457</v>
+        <v>32.39130943078843</v>
       </c>
       <c r="G14">
-        <v>26.74792412138484</v>
+        <v>48.10292962939939</v>
       </c>
       <c r="H14">
-        <v>10.99456554138558</v>
+        <v>11.90497823817983</v>
       </c>
       <c r="I14">
-        <v>52.13432002565632</v>
+        <v>88.75543065175434</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.98366902686251</v>
+        <v>24.85234010307486</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.87011552320599</v>
+        <v>30.96450739298555</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.343866772780879</v>
+        <v>2.373985838327769</v>
       </c>
       <c r="E15">
-        <v>21.14376642488964</v>
+        <v>40.6477495681749</v>
       </c>
       <c r="F15">
-        <v>20.65020392082526</v>
+        <v>32.19469231260058</v>
       </c>
       <c r="G15">
-        <v>26.62422428068378</v>
+        <v>47.8088161416468</v>
       </c>
       <c r="H15">
-        <v>10.98365086186756</v>
+        <v>11.83234646593346</v>
       </c>
       <c r="I15">
-        <v>51.87770123785431</v>
+        <v>88.2646161388756</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.94272308504471</v>
+        <v>24.7005701633387</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.3549581758265</v>
+        <v>29.95347700689886</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.341488264673342</v>
+        <v>2.337916823552689</v>
       </c>
       <c r="E16">
-        <v>20.46778435323411</v>
+        <v>39.12063977260136</v>
       </c>
       <c r="F16">
-        <v>20.28048541154647</v>
+        <v>31.05434852460082</v>
       </c>
       <c r="G16">
-        <v>25.9055371870232</v>
+        <v>46.10349687584598</v>
       </c>
       <c r="H16">
-        <v>10.921686192136</v>
+        <v>11.41132664437742</v>
       </c>
       <c r="I16">
-        <v>50.38125698588405</v>
+        <v>85.40605400812032</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.70751495472316</v>
+        <v>23.82042474532409</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.03087938850338</v>
+        <v>29.31904709826847</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.340120871658005</v>
+        <v>2.316054643615762</v>
       </c>
       <c r="E17">
-        <v>20.04215383634661</v>
+        <v>38.17249920501028</v>
       </c>
       <c r="F17">
-        <v>20.05176529754235</v>
+        <v>30.34237880283521</v>
       </c>
       <c r="G17">
-        <v>25.45602378938278</v>
+        <v>45.03917876416299</v>
       </c>
       <c r="H17">
-        <v>10.88420815208812</v>
+        <v>11.14866417013891</v>
       </c>
       <c r="I17">
-        <v>49.44026495104949</v>
+        <v>83.61107613539407</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.56280069720605</v>
+        <v>23.27096516431289</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.84153069387959</v>
+        <v>28.94886706821212</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.339368223788723</v>
+        <v>2.303571160301851</v>
       </c>
       <c r="E18">
-        <v>19.79331164051828</v>
+        <v>37.62272973925779</v>
       </c>
       <c r="F18">
-        <v>19.91956150706805</v>
+        <v>29.92821543463626</v>
       </c>
       <c r="G18">
-        <v>25.19436406922753</v>
+        <v>44.42017666902687</v>
       </c>
       <c r="H18">
-        <v>10.86285440835427</v>
+        <v>10.99594023617808</v>
       </c>
       <c r="I18">
-        <v>48.89063678530206</v>
+        <v>82.56331114050347</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.47944270756341</v>
+        <v>22.95134644814264</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.77691535278072</v>
+        <v>28.82261968951628</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.339119213877821</v>
+        <v>2.299359566841261</v>
       </c>
       <c r="E19">
-        <v>19.70836458320055</v>
+        <v>37.4358032678893</v>
       </c>
       <c r="F19">
-        <v>19.87469300417116</v>
+        <v>29.78717810882447</v>
       </c>
       <c r="G19">
-        <v>25.10524197005105</v>
+        <v>44.20940485025155</v>
       </c>
       <c r="H19">
-        <v>10.85565975489246</v>
+        <v>10.94394421608378</v>
       </c>
       <c r="I19">
-        <v>48.7031053676155</v>
+        <v>82.20590737232423</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.45120130807218</v>
+        <v>22.84250567085699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.06568338928438</v>
+        <v>29.38712771213808</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.340262933356617</v>
+        <v>2.31837235310783</v>
       </c>
       <c r="E20">
-        <v>20.08787984548762</v>
+        <v>38.27388244696785</v>
       </c>
       <c r="F20">
-        <v>20.07618141573258</v>
+        <v>30.41864906823042</v>
       </c>
       <c r="G20">
-        <v>25.50419863862297</v>
+        <v>45.15318108972114</v>
       </c>
       <c r="H20">
-        <v>10.88817691407267</v>
+        <v>11.1767947273596</v>
       </c>
       <c r="I20">
-        <v>49.54130510666898</v>
+        <v>83.80373907579209</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.57821917134406</v>
+        <v>23.32982513974612</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.00062425561376</v>
+        <v>31.22119358573329</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.344509117089792</v>
+        <v>2.383385801990121</v>
       </c>
       <c r="E21">
-        <v>21.31491949976721</v>
+        <v>41.03875504055188</v>
       </c>
       <c r="F21">
-        <v>20.74502673075174</v>
+        <v>32.4853557595773</v>
       </c>
       <c r="G21">
-        <v>26.80706618550222</v>
+        <v>48.24361975219639</v>
       </c>
       <c r="H21">
-        <v>10.99980952428328</v>
+        <v>11.93972378429002</v>
       </c>
       <c r="I21">
-        <v>52.25691677039583</v>
+        <v>88.98998307435168</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.00329262939363</v>
+        <v>24.92493703555135</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.58522931221873</v>
+        <v>32.37412346042072</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.347582896093313</v>
+        <v>2.426835124663542</v>
       </c>
       <c r="E22">
-        <v>22.08120714169245</v>
+        <v>42.81238247140244</v>
       </c>
       <c r="F22">
-        <v>21.17530009767951</v>
+        <v>33.79678858749871</v>
       </c>
       <c r="G22">
-        <v>27.62971804028947</v>
+        <v>50.20612434330764</v>
       </c>
       <c r="H22">
-        <v>11.07444526050048</v>
+        <v>12.42451617693132</v>
       </c>
       <c r="I22">
-        <v>53.9560509119212</v>
+        <v>92.24610226002343</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.27933077334015</v>
+        <v>25.9374278696955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.27564066207565</v>
+        <v>31.7629070589364</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.345915169760891</v>
+        <v>2.403549218514421</v>
       </c>
       <c r="E23">
-        <v>21.67547575067288</v>
+        <v>41.86849899083176</v>
       </c>
       <c r="F23">
-        <v>20.94633133710848</v>
+        <v>33.10033093101026</v>
       </c>
       <c r="G23">
-        <v>27.19334216302269</v>
+        <v>49.16375132086888</v>
       </c>
       <c r="H23">
-        <v>11.03446353262154</v>
+        <v>12.16699370116515</v>
       </c>
       <c r="I23">
-        <v>53.05615300520156</v>
+        <v>90.52029302560413</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.13219820137929</v>
+        <v>25.39968849520772</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.04995794057753</v>
+        <v>29.35636541739254</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.340198602956222</v>
+        <v>2.317324252194368</v>
       </c>
       <c r="E24">
-        <v>20.06722001980252</v>
+        <v>38.22806169476728</v>
       </c>
       <c r="F24">
-        <v>20.06514508651011</v>
+        <v>30.38418238760741</v>
       </c>
       <c r="G24">
-        <v>25.48242883184155</v>
+        <v>45.10166282666611</v>
       </c>
       <c r="H24">
-        <v>10.88638203454029</v>
+        <v>11.16408225555713</v>
       </c>
       <c r="I24">
-        <v>49.49565175058866</v>
+        <v>83.71668543464097</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.5712489692286</v>
+        <v>23.30322617409372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.61539234780995</v>
+        <v>26.55830670834309</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.335327506432339</v>
+        <v>2.227758591924867</v>
       </c>
       <c r="E25">
-        <v>18.17820302606687</v>
+        <v>34.12963562220377</v>
       </c>
       <c r="F25">
-        <v>19.09055749939812</v>
+        <v>27.27540407321635</v>
       </c>
       <c r="G25">
-        <v>23.51897299350288</v>
+        <v>40.45721875450867</v>
       </c>
       <c r="H25">
-        <v>10.73446794358163</v>
+        <v>10.041757576016</v>
       </c>
       <c r="I25">
-        <v>45.33509062920486</v>
+        <v>75.78973891881806</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.96195547730644</v>
+        <v>20.90398045560054</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31785756501655</v>
+        <v>12.74983014940662</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.16423168626013</v>
+        <v>5.091098484028738</v>
       </c>
       <c r="E2">
-        <v>30.93755439804213</v>
+        <v>11.85562494407798</v>
       </c>
       <c r="F2">
-        <v>24.82253004437597</v>
+        <v>15.47754291352385</v>
       </c>
       <c r="G2">
-        <v>36.79505295082199</v>
+        <v>18.11945827344521</v>
       </c>
       <c r="H2">
-        <v>9.372623469429763</v>
+        <v>2.600644262144383</v>
       </c>
       <c r="I2">
-        <v>69.43069910385718</v>
+        <v>4.07596790625877</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.859373603122527</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.13780537524596</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.93585772085215</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.036815678342717</v>
       </c>
       <c r="O2">
-        <v>19.00990756905208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.3316047708947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225612</v>
+        <v>12.01213736491973</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.122519041038498</v>
+        <v>4.860804422906131</v>
       </c>
       <c r="E3">
-        <v>28.65423867999851</v>
+        <v>11.75328667739659</v>
       </c>
       <c r="F3">
-        <v>23.05394107770008</v>
+        <v>15.17973446656874</v>
       </c>
       <c r="G3">
-        <v>34.15511877210732</v>
+        <v>17.77317163818207</v>
       </c>
       <c r="H3">
-        <v>8.908803315204793</v>
+        <v>2.762668821246213</v>
       </c>
       <c r="I3">
-        <v>64.78771038057258</v>
+        <v>4.190151181997389</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.900520802239519</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.32490819254679</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.25568991968694</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.685469104272819</v>
       </c>
       <c r="O3">
-        <v>17.64289383230128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.31620039749281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639427</v>
+        <v>11.5317577436327</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.097533728375469</v>
+        <v>4.713522621504673</v>
       </c>
       <c r="E4">
-        <v>27.18984927183106</v>
+        <v>11.68742347790324</v>
       </c>
       <c r="F4">
-        <v>21.91455764494751</v>
+        <v>15.00360745265872</v>
       </c>
       <c r="G4">
-        <v>32.45436817138769</v>
+        <v>17.57097419124022</v>
       </c>
       <c r="H4">
-        <v>8.619582511969091</v>
+        <v>2.865951726279664</v>
       </c>
       <c r="I4">
-        <v>61.77023254095738</v>
+        <v>4.263516061189737</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.929019667395234</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.44187382527778</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.82222365735613</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.461511014871324</v>
       </c>
       <c r="O4">
-        <v>16.76129836844328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.31375271367823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455042</v>
+        <v>11.32060341112321</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.087506276006406</v>
+        <v>4.653416152223179</v>
       </c>
       <c r="E5">
-        <v>26.57696618080699</v>
+        <v>11.65576680370198</v>
       </c>
       <c r="F5">
-        <v>21.43668347917318</v>
+        <v>14.92698486935452</v>
       </c>
       <c r="G5">
-        <v>31.74099577495942</v>
+        <v>17.47938602752486</v>
       </c>
       <c r="H5">
-        <v>8.500738049774901</v>
+        <v>2.90933144389654</v>
       </c>
       <c r="I5">
-        <v>60.4983882598456</v>
+        <v>4.296711731626388</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.939590452874643</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.4846790509539</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.64800165936248</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.371479925024012</v>
       </c>
       <c r="O5">
-        <v>16.39126991226236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.30975772145535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556363</v>
+        <v>11.27463181782062</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.085850470997481</v>
+        <v>4.645003706854936</v>
       </c>
       <c r="E6">
-        <v>26.47421094918228</v>
+        <v>11.64553751440997</v>
       </c>
       <c r="F6">
-        <v>21.35651048323104</v>
+        <v>14.90629420105963</v>
       </c>
       <c r="G6">
-        <v>31.62130859795608</v>
+        <v>17.44984730866266</v>
       </c>
       <c r="H6">
-        <v>8.480948870500084</v>
+        <v>2.916989410882245</v>
       </c>
       <c r="I6">
-        <v>60.2846430996342</v>
+        <v>4.305425561959375</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.939151637453197</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.4852587533618</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.62651732117581</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.360356004852751</v>
       </c>
       <c r="O6">
-        <v>16.32917232608428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.30344347848586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61721297382809</v>
+        <v>11.50086427077587</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.097397873411616</v>
+        <v>4.717178350136155</v>
       </c>
       <c r="E7">
-        <v>27.18164958784457</v>
+        <v>11.67364897759949</v>
       </c>
       <c r="F7">
-        <v>21.90816793603158</v>
+        <v>14.98068851712517</v>
       </c>
       <c r="G7">
-        <v>32.44482986447203</v>
+        <v>17.53045155037579</v>
       </c>
       <c r="H7">
-        <v>8.61798352921204</v>
+        <v>2.867590292683327</v>
       </c>
       <c r="I7">
-        <v>61.75325121813999</v>
+        <v>4.272281325638941</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.92305441115666</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.4245801061388</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.84057904313013</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.470877084550971</v>
       </c>
       <c r="O7">
-        <v>16.75635183448618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.29803161972865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.7664634596178</v>
+        <v>12.46665703218678</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.149716748705492</v>
+        <v>5.018583855190605</v>
       </c>
       <c r="E8">
-        <v>30.16295003140155</v>
+        <v>11.80387956962884</v>
       </c>
       <c r="F8">
-        <v>24.22373356801236</v>
+        <v>15.34541007567559</v>
       </c>
       <c r="G8">
-        <v>35.9012188520833</v>
+        <v>17.9474759620453</v>
       </c>
       <c r="H8">
-        <v>9.213688181180588</v>
+        <v>2.657020332211189</v>
       </c>
       <c r="I8">
-        <v>67.86420339647047</v>
+        <v>4.125097715546198</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.864870511045567</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.17858247954765</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.73088043211949</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.930563064118831</v>
       </c>
       <c r="O8">
-        <v>18.54723507259014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.30433569895859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193151</v>
+        <v>14.1853235100568</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.257524162052197</v>
+        <v>5.55405484888246</v>
       </c>
       <c r="E9">
-        <v>35.53565962533064</v>
+        <v>12.05830233655217</v>
       </c>
       <c r="F9">
-        <v>28.34745798099243</v>
+        <v>16.14876835398421</v>
       </c>
       <c r="G9">
-        <v>42.05837224899967</v>
+        <v>18.91346941924819</v>
       </c>
       <c r="H9">
-        <v>10.41351275112119</v>
+        <v>2.27205605233297</v>
       </c>
       <c r="I9">
-        <v>78.54004445614574</v>
+        <v>3.848527618089396</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.788317745197419</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.74361234860228</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.31140847868079</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.746530120756656</v>
       </c>
       <c r="O9">
-        <v>21.73142598679816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.40239194164629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.02515941378264</v>
+        <v>15.22219622358499</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.340424227385183</v>
+        <v>5.93843941117524</v>
       </c>
       <c r="E10">
-        <v>39.22824871429451</v>
+        <v>12.13837378580718</v>
       </c>
       <c r="F10">
-        <v>31.13496510759985</v>
+        <v>16.65871253480217</v>
       </c>
       <c r="G10">
-        <v>46.22402828101346</v>
+        <v>19.47706410938403</v>
       </c>
       <c r="H10">
-        <v>11.44107768786063</v>
+        <v>2.037661583291102</v>
       </c>
       <c r="I10">
-        <v>85.60880529061026</v>
+        <v>3.67100469833543</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.717786710707164</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.35768820154326</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.45879335952109</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.18301330242377</v>
       </c>
       <c r="O10">
-        <v>23.8826423548355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.4314811631325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10503410527765</v>
+        <v>14.96587983727389</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.379119748423768</v>
+        <v>6.285172904413446</v>
       </c>
       <c r="E11">
-        <v>40.86164182526893</v>
+        <v>11.78609328058117</v>
       </c>
       <c r="F11">
-        <v>32.35376212928512</v>
+        <v>16.02372894339537</v>
       </c>
       <c r="G11">
-        <v>48.04676179419457</v>
+        <v>18.18275973552318</v>
       </c>
       <c r="H11">
-        <v>11.89110708767762</v>
+        <v>2.973336711258193</v>
       </c>
       <c r="I11">
-        <v>88.66174843512329</v>
+        <v>3.654188896082775</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.427288481190468</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.68418452470665</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.53220232877643</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.336868476492</v>
       </c>
       <c r="O11">
-        <v>24.82335668339963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.78684853043847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50609682796114</v>
+        <v>14.56467154991712</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.393935072878421</v>
+        <v>6.49707971193377</v>
       </c>
       <c r="E12">
-        <v>41.47436071722513</v>
+        <v>11.99839301223132</v>
       </c>
       <c r="F12">
-        <v>32.80852459811591</v>
+        <v>15.3942770631491</v>
       </c>
       <c r="G12">
-        <v>48.72711522221348</v>
+        <v>16.99957052345814</v>
       </c>
       <c r="H12">
-        <v>12.05913950096484</v>
+        <v>4.302314524322432</v>
       </c>
       <c r="I12">
-        <v>89.79490566287599</v>
+        <v>3.656979338569326</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.203864370109729</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.36200275578569</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.1911093332063</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.548376911977388</v>
       </c>
       <c r="O12">
-        <v>25.17441048528586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.25123740456865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.42006755568587</v>
+        <v>13.98165511766944</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.390736723125324</v>
+        <v>6.628566995289911</v>
       </c>
       <c r="E13">
-        <v>41.34264413774066</v>
+        <v>12.59980693846062</v>
       </c>
       <c r="F13">
-        <v>32.71087897672281</v>
+        <v>14.68575868369662</v>
       </c>
       <c r="G13">
-        <v>48.58101927261097</v>
+        <v>15.74921361980307</v>
       </c>
       <c r="H13">
-        <v>12.02305462610473</v>
+        <v>5.695749597945938</v>
       </c>
       <c r="I13">
-        <v>89.55187185858654</v>
+        <v>3.688479134633948</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.009517735092341</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.26759760252207</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.61179536625636</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.796782401324963</v>
       </c>
       <c r="O13">
-        <v>25.09903017264229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.74121020784783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.138186303498</v>
+        <v>13.47613331555709</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.380335224761687</v>
+        <v>6.687016104369004</v>
       </c>
       <c r="E14">
-        <v>40.91216166863577</v>
+        <v>13.22740702010388</v>
       </c>
       <c r="F14">
-        <v>32.39130943078843</v>
+        <v>14.14350795958704</v>
       </c>
       <c r="G14">
-        <v>48.10292962939939</v>
+        <v>14.82632637264142</v>
       </c>
       <c r="H14">
-        <v>11.90497823817983</v>
+        <v>6.689737332259665</v>
       </c>
       <c r="I14">
-        <v>88.75543065175434</v>
+        <v>3.725732311177671</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.886577076820613</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.3226425138381</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.80935631942229</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.278481702578667</v>
       </c>
       <c r="O14">
-        <v>24.85234010307486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.39421050613268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96450739298555</v>
+        <v>13.30406300092574</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.373985838327769</v>
+        <v>6.685412814718974</v>
       </c>
       <c r="E15">
-        <v>40.6477495681749</v>
+        <v>13.39849966930884</v>
       </c>
       <c r="F15">
-        <v>32.19469231260058</v>
+        <v>13.98831999832738</v>
       </c>
       <c r="G15">
-        <v>47.8088161416468</v>
+        <v>14.57632650115715</v>
       </c>
       <c r="H15">
-        <v>11.83234646593346</v>
+        <v>6.921676965964024</v>
       </c>
       <c r="I15">
-        <v>88.2646161388756</v>
+        <v>3.745434207524023</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.861435642108263</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.36564539880541</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.81285898423805</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.149163135760697</v>
       </c>
       <c r="O15">
-        <v>24.7005701633387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.31170308561738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95347700689886</v>
+        <v>12.9360886555633</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.337916823552689</v>
+        <v>6.510915243580373</v>
       </c>
       <c r="E16">
-        <v>39.12063977260136</v>
+        <v>13.22405213621147</v>
       </c>
       <c r="F16">
-        <v>31.05434852460082</v>
+        <v>13.86569497083092</v>
       </c>
       <c r="G16">
-        <v>46.10349687584598</v>
+        <v>14.50519709171268</v>
       </c>
       <c r="H16">
-        <v>11.41132664437742</v>
+        <v>6.724903581507519</v>
       </c>
       <c r="I16">
-        <v>85.40605400812032</v>
+        <v>3.821194052453952</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.927642077175082</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.5311106548804</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.29131038613513</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.064656797687966</v>
       </c>
       <c r="O16">
-        <v>23.82042474532409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.38785891980294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.31904709826847</v>
+        <v>12.93051626296911</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.316054643615762</v>
+        <v>6.341968296179705</v>
       </c>
       <c r="E17">
-        <v>38.17249920501028</v>
+        <v>12.71828267650114</v>
       </c>
       <c r="F17">
-        <v>30.34237880283521</v>
+        <v>14.0696818297935</v>
       </c>
       <c r="G17">
-        <v>45.03917876416299</v>
+        <v>14.95633735814009</v>
       </c>
       <c r="H17">
-        <v>11.14866417013891</v>
+        <v>6.015453444574249</v>
       </c>
       <c r="I17">
-        <v>83.61107613539407</v>
+        <v>3.860166036725674</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.043211328954664</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.61943557015928</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.77380432154244</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.276784674629463</v>
       </c>
       <c r="O17">
-        <v>23.27096516431289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.63071742263571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.94886706821212</v>
+        <v>13.26015420675131</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.303571160301851</v>
+        <v>6.158106169224174</v>
       </c>
       <c r="E18">
-        <v>37.62272973925779</v>
+        <v>12.0570307554448</v>
       </c>
       <c r="F18">
-        <v>29.92821543463626</v>
+        <v>14.58732262600192</v>
       </c>
       <c r="G18">
-        <v>44.42017666902687</v>
+        <v>15.92688677214245</v>
       </c>
       <c r="H18">
-        <v>10.99594023617808</v>
+        <v>4.818795170835605</v>
       </c>
       <c r="I18">
-        <v>82.56331114050347</v>
+        <v>3.860288137217524</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.219062507864699</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.72587385822344</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.19493641654023</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.802115579724684</v>
       </c>
       <c r="O18">
-        <v>22.95134644814264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.05509796833866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.82261968951628</v>
+        <v>13.78563503612843</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.299359566841261</v>
+        <v>5.987464021781665</v>
       </c>
       <c r="E19">
-        <v>37.4358032678893</v>
+        <v>11.68269205642535</v>
       </c>
       <c r="F19">
-        <v>29.78717810882447</v>
+        <v>15.27419612489233</v>
       </c>
       <c r="G19">
-        <v>44.20940485025155</v>
+        <v>17.1689962893033</v>
       </c>
       <c r="H19">
-        <v>10.94394421608378</v>
+        <v>3.439699401141672</v>
       </c>
       <c r="I19">
-        <v>82.20590737232423</v>
+        <v>3.841662558302431</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.422695005933535</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.93813192919787</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.6597212921051</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.639063039171492</v>
       </c>
       <c r="O19">
-        <v>22.84250567085699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.57157253767725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.38712771213808</v>
+        <v>14.88613060115192</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.31837235310783</v>
+        <v>5.852580874607892</v>
       </c>
       <c r="E20">
-        <v>38.27388244696785</v>
+        <v>12.07920044030831</v>
       </c>
       <c r="F20">
-        <v>30.41864906823042</v>
+        <v>16.45793879080641</v>
       </c>
       <c r="G20">
-        <v>45.15318108972114</v>
+        <v>19.20920223456041</v>
       </c>
       <c r="H20">
-        <v>11.1767947273596</v>
+        <v>2.100219989048675</v>
       </c>
       <c r="I20">
-        <v>83.80373907579209</v>
+        <v>3.743165366027282</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.71535229303046</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.40389021427135</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.22180619805779</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.091580591055099</v>
       </c>
       <c r="O20">
-        <v>23.32982513974612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.37143466433846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22119358573329</v>
+        <v>15.77758095125493</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.383385801990121</v>
+        <v>6.103501203056484</v>
       </c>
       <c r="E21">
-        <v>41.03875504055188</v>
+        <v>12.27840487291571</v>
       </c>
       <c r="F21">
-        <v>32.4853557595773</v>
+        <v>17.02267406261978</v>
       </c>
       <c r="G21">
-        <v>48.24361975219639</v>
+        <v>19.95327700825687</v>
       </c>
       <c r="H21">
-        <v>11.93972378429002</v>
+        <v>1.8791898296464</v>
       </c>
       <c r="I21">
-        <v>88.98998307435168</v>
+        <v>3.597098919454594</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.716684142667203</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.22483181100901</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.96355795071694</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.59596923278275</v>
       </c>
       <c r="O21">
-        <v>24.92493703555135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.53260095858484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.37412346042072</v>
+        <v>16.32077283640289</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.426835124663542</v>
+        <v>6.267268075052472</v>
       </c>
       <c r="E22">
-        <v>42.81238247140244</v>
+        <v>12.37717196366169</v>
       </c>
       <c r="F22">
-        <v>33.79678858749871</v>
+        <v>17.3690051210877</v>
       </c>
       <c r="G22">
-        <v>50.20612434330764</v>
+        <v>20.39911534874123</v>
       </c>
       <c r="H22">
-        <v>12.42451617693132</v>
+        <v>1.751269094627488</v>
       </c>
       <c r="I22">
-        <v>92.24610226002343</v>
+        <v>3.496580788260035</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.713984756034703</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.09760550258188</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.44274550460012</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.843354839342819</v>
       </c>
       <c r="O22">
-        <v>25.9374278696955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.62663838179488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.7629070589364</v>
+        <v>16.05768218893956</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.403549218514421</v>
+        <v>6.176100952711513</v>
       </c>
       <c r="E23">
-        <v>41.86849899083176</v>
+        <v>12.33807803400816</v>
       </c>
       <c r="F23">
-        <v>33.10033093101026</v>
+        <v>17.20583610125954</v>
       </c>
       <c r="G23">
-        <v>49.16375132086888</v>
+        <v>20.19981094662349</v>
       </c>
       <c r="H23">
-        <v>12.16699370116515</v>
+        <v>1.818386701655454</v>
       </c>
       <c r="I23">
-        <v>90.52029302560413</v>
+        <v>3.539801011554276</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.721993392203279</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.18523590770896</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.16859461277591</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.702587196180696</v>
       </c>
       <c r="O23">
-        <v>25.39968849520772</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.59292876320034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.35636541739254</v>
+        <v>14.97360496346194</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.317324252194368</v>
+        <v>5.825530863537414</v>
       </c>
       <c r="E24">
-        <v>38.22806169476728</v>
+        <v>12.164662587448</v>
       </c>
       <c r="F24">
-        <v>30.38418238760741</v>
+        <v>16.56172532318453</v>
       </c>
       <c r="G24">
-        <v>45.10166282666611</v>
+        <v>19.39965926847248</v>
       </c>
       <c r="H24">
-        <v>11.16408225555713</v>
+        <v>2.07981903705757</v>
       </c>
       <c r="I24">
-        <v>83.71668543464097</v>
+        <v>3.724828153290569</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.749250963772194</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.48937486969538</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.12756586726462</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.166418081543309</v>
       </c>
       <c r="O24">
-        <v>23.30322617409372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.45484716293714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.55830670834309</v>
+        <v>13.7013685462753</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.227758591924867</v>
+        <v>5.421773340320681</v>
       </c>
       <c r="E25">
-        <v>34.12963562220377</v>
+        <v>11.96985452134451</v>
       </c>
       <c r="F25">
-        <v>27.27540407321635</v>
+        <v>15.88981684848288</v>
       </c>
       <c r="G25">
-        <v>40.45721875450867</v>
+        <v>18.57812632796161</v>
       </c>
       <c r="H25">
-        <v>10.041757576016</v>
+        <v>2.374681472838067</v>
       </c>
       <c r="I25">
-        <v>75.78973891881806</v>
+        <v>3.9352273524403</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.795197780033111</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.82851713902551</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.93202678193974</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.549950827162975</v>
       </c>
       <c r="O25">
-        <v>20.90398045560054</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.34187818943905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.74983014940662</v>
+        <v>12.37806931313591</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.091098484028738</v>
+        <v>5.111269849802427</v>
       </c>
       <c r="E2">
-        <v>11.85562494407798</v>
+        <v>11.25661125375854</v>
       </c>
       <c r="F2">
-        <v>15.47754291352385</v>
+        <v>15.30663721311595</v>
       </c>
       <c r="G2">
-        <v>18.11945827344521</v>
+        <v>17.07943082455029</v>
       </c>
       <c r="H2">
-        <v>2.600644262144383</v>
+        <v>2.399968498829298</v>
       </c>
       <c r="I2">
-        <v>4.07596790625877</v>
+        <v>3.78301366132317</v>
       </c>
       <c r="J2">
-        <v>7.859373603122527</v>
+        <v>8.389694537482969</v>
       </c>
       <c r="K2">
-        <v>16.13780537524596</v>
+        <v>15.34003644287394</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.94601239310209</v>
       </c>
       <c r="M2">
-        <v>14.93585772085215</v>
+        <v>10.6567317663802</v>
       </c>
       <c r="N2">
-        <v>7.036815678342717</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.9201988931349</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.258562016399677</v>
       </c>
       <c r="Q2">
-        <v>12.3316047708947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.19315784041237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01213736491973</v>
+        <v>11.66804655604151</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.860804422906131</v>
+        <v>4.869534145466294</v>
       </c>
       <c r="E3">
-        <v>11.75328667739659</v>
+        <v>11.16955597188426</v>
       </c>
       <c r="F3">
-        <v>15.17973446656874</v>
+        <v>15.04070679995934</v>
       </c>
       <c r="G3">
-        <v>17.77317163818207</v>
+        <v>16.77870049188348</v>
       </c>
       <c r="H3">
-        <v>2.762668821246213</v>
+        <v>2.550729587623622</v>
       </c>
       <c r="I3">
-        <v>4.190151181997389</v>
+        <v>3.881411322297153</v>
       </c>
       <c r="J3">
-        <v>7.900520802239519</v>
+        <v>8.409663131816556</v>
       </c>
       <c r="K3">
-        <v>16.32490819254679</v>
+        <v>15.53351594133551</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.12266779799501</v>
       </c>
       <c r="M3">
-        <v>14.25568991968694</v>
+        <v>10.81983226530771</v>
       </c>
       <c r="N3">
-        <v>6.685469104272819</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.19155400633043</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.90221964069168</v>
       </c>
       <c r="Q3">
-        <v>12.31620039749281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.19855944392251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5317577436327</v>
+        <v>11.20425601296384</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.713522621504673</v>
+        <v>4.714889234704847</v>
       </c>
       <c r="E4">
-        <v>11.68742347790324</v>
+        <v>11.11335975013015</v>
       </c>
       <c r="F4">
-        <v>15.00360745265872</v>
+        <v>14.88367060315472</v>
       </c>
       <c r="G4">
-        <v>17.57097419124022</v>
+        <v>16.60727446327115</v>
       </c>
       <c r="H4">
-        <v>2.865951726279664</v>
+        <v>2.64685329960023</v>
       </c>
       <c r="I4">
-        <v>4.263516061189737</v>
+        <v>3.944919596588517</v>
       </c>
       <c r="J4">
-        <v>7.929019667395234</v>
+        <v>8.423508016367313</v>
       </c>
       <c r="K4">
-        <v>16.44187382527778</v>
+        <v>15.65398904996758</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.23675261014726</v>
       </c>
       <c r="M4">
-        <v>13.82222365735613</v>
+        <v>10.93005184277408</v>
       </c>
       <c r="N4">
-        <v>6.461511014871324</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.72691438157906</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.675735286770378</v>
       </c>
       <c r="Q4">
-        <v>12.31375271367823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.20818940551157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.32060341112321</v>
+        <v>11.00032604411671</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.653416152223179</v>
+        <v>4.651589230375818</v>
       </c>
       <c r="E5">
-        <v>11.65576680370198</v>
+        <v>11.08610271858837</v>
       </c>
       <c r="F5">
-        <v>14.92698486935452</v>
+        <v>14.8152756980529</v>
       </c>
       <c r="G5">
-        <v>17.47938602752486</v>
+        <v>16.52959038067353</v>
       </c>
       <c r="H5">
-        <v>2.90933144389654</v>
+        <v>2.687238643031215</v>
       </c>
       <c r="I5">
-        <v>4.296711731626388</v>
+        <v>3.97447717931419</v>
       </c>
       <c r="J5">
-        <v>7.939590452874643</v>
+        <v>8.427918891138155</v>
       </c>
       <c r="K5">
-        <v>16.4846790509539</v>
+        <v>15.69869249789088</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.27897544126353</v>
       </c>
       <c r="M5">
-        <v>13.64800165936248</v>
+        <v>10.97583485068571</v>
       </c>
       <c r="N5">
-        <v>6.371479925024012</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.53923272341598</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.584457436211</v>
       </c>
       <c r="Q5">
-        <v>12.30975772145535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.20936925976827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.27463181782062</v>
+        <v>10.95629571565324</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.645003706854936</v>
+        <v>4.642502318704763</v>
       </c>
       <c r="E6">
-        <v>11.64553751440997</v>
+        <v>11.07709378033258</v>
       </c>
       <c r="F6">
-        <v>14.90629420105963</v>
+        <v>14.7966720038318</v>
       </c>
       <c r="G6">
-        <v>17.44984730866266</v>
+        <v>16.50329117638704</v>
       </c>
       <c r="H6">
-        <v>2.916989410882245</v>
+        <v>2.694377674024823</v>
       </c>
       <c r="I6">
-        <v>4.305425561959375</v>
+        <v>3.983139435021006</v>
       </c>
       <c r="J6">
-        <v>7.939151637453197</v>
+        <v>8.426692610052374</v>
       </c>
       <c r="K6">
-        <v>16.4852587533618</v>
+        <v>15.70027884818827</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.27919397548117</v>
       </c>
       <c r="M6">
-        <v>13.62651732117581</v>
+        <v>10.9815811793275</v>
       </c>
       <c r="N6">
-        <v>6.360356004852751</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.5149638436457</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.572679774560421</v>
       </c>
       <c r="Q6">
-        <v>12.30344347848586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.20443230687215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.50086427077587</v>
+        <v>11.17876694025163</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.717178350136155</v>
+        <v>4.721573878561987</v>
       </c>
       <c r="E7">
-        <v>11.67364897759949</v>
+        <v>11.10118780648494</v>
       </c>
       <c r="F7">
-        <v>14.98068851712517</v>
+        <v>14.84824123920904</v>
       </c>
       <c r="G7">
-        <v>17.53045155037579</v>
+        <v>16.65433759774956</v>
       </c>
       <c r="H7">
-        <v>2.867590292683327</v>
+        <v>2.64870398113619</v>
       </c>
       <c r="I7">
-        <v>4.272281325638941</v>
+        <v>3.955293662429191</v>
       </c>
       <c r="J7">
-        <v>7.92305441115666</v>
+        <v>8.384553416664231</v>
       </c>
       <c r="K7">
-        <v>16.4245801061388</v>
+        <v>15.63576013304742</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.21600640888087</v>
       </c>
       <c r="M7">
-        <v>13.84057904313013</v>
+        <v>10.92340917062053</v>
       </c>
       <c r="N7">
-        <v>6.470877084550971</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.7405266819019</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.682661945557689</v>
       </c>
       <c r="Q7">
-        <v>12.29803161972865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.18394461576671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.46665703218678</v>
+        <v>12.11716090287709</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.018583855190605</v>
+        <v>5.045326407618747</v>
       </c>
       <c r="E8">
-        <v>11.80387956962884</v>
+        <v>11.21282113470572</v>
       </c>
       <c r="F8">
-        <v>15.34541007567559</v>
+        <v>15.14073383040791</v>
       </c>
       <c r="G8">
-        <v>17.9474759620453</v>
+        <v>17.20299889483119</v>
       </c>
       <c r="H8">
-        <v>2.657020332211189</v>
+        <v>2.45337145007478</v>
       </c>
       <c r="I8">
-        <v>4.125097715546198</v>
+        <v>3.829202527416004</v>
       </c>
       <c r="J8">
-        <v>7.864870511045567</v>
+        <v>8.279493759562317</v>
       </c>
       <c r="K8">
-        <v>16.17858247954765</v>
+        <v>15.37688049040113</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.9759253743433</v>
       </c>
       <c r="M8">
-        <v>14.73088043211949</v>
+        <v>10.6957288210867</v>
       </c>
       <c r="N8">
-        <v>6.930563064118831</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>14.68722567871924</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.145229384705505</v>
       </c>
       <c r="Q8">
-        <v>12.30433569895859</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.14195954439547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.1853235100568</v>
+        <v>13.76511626996792</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.55405484888246</v>
+        <v>5.609606821548759</v>
       </c>
       <c r="E9">
-        <v>12.05830233655217</v>
+        <v>11.42965653601128</v>
       </c>
       <c r="F9">
-        <v>16.14876835398421</v>
+        <v>15.85038397192491</v>
       </c>
       <c r="G9">
-        <v>18.91346941924819</v>
+        <v>18.13027321885778</v>
       </c>
       <c r="H9">
-        <v>2.27205605233297</v>
+        <v>2.095406166179841</v>
       </c>
       <c r="I9">
-        <v>3.848527618089396</v>
+        <v>3.589675994740807</v>
       </c>
       <c r="J9">
-        <v>7.788317745197419</v>
+        <v>8.214717051526122</v>
       </c>
       <c r="K9">
-        <v>15.74361234860228</v>
+        <v>14.91949629074149</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.58908654719111</v>
       </c>
       <c r="M9">
-        <v>16.31140847868079</v>
+        <v>10.34886967433662</v>
       </c>
       <c r="N9">
-        <v>7.746530120756656</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>16.38003025722002</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.976700411286249</v>
       </c>
       <c r="Q9">
-        <v>12.40239194164629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.17403026907114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.22219622358499</v>
+        <v>14.78146685439905</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.93843941117524</v>
+        <v>6.027203259836719</v>
       </c>
       <c r="E10">
-        <v>12.13837378580718</v>
+        <v>11.50429975399955</v>
       </c>
       <c r="F10">
-        <v>16.65871253480217</v>
+        <v>16.22994049738751</v>
       </c>
       <c r="G10">
-        <v>19.47706410938403</v>
+        <v>19.15218663079923</v>
       </c>
       <c r="H10">
-        <v>2.037661583291102</v>
+        <v>1.881505516466914</v>
       </c>
       <c r="I10">
-        <v>3.67100469833543</v>
+        <v>3.439741380152015</v>
       </c>
       <c r="J10">
-        <v>7.717786710707164</v>
+        <v>7.967617720720802</v>
       </c>
       <c r="K10">
-        <v>15.35768820154326</v>
+        <v>14.52185215578156</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.28645064784259</v>
       </c>
       <c r="M10">
-        <v>17.45879335952109</v>
+        <v>10.08726948187977</v>
       </c>
       <c r="N10">
-        <v>8.18301330242377</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.5747140871979</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.414490277141423</v>
       </c>
       <c r="Q10">
-        <v>12.4314811631325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.10699051908257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.96587983727389</v>
+        <v>14.67278304095141</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.285172904413446</v>
+        <v>6.394867352524419</v>
       </c>
       <c r="E11">
-        <v>11.78609328058117</v>
+        <v>11.26786226674811</v>
       </c>
       <c r="F11">
-        <v>16.02372894339537</v>
+        <v>15.52972299180521</v>
       </c>
       <c r="G11">
-        <v>18.18275973552318</v>
+        <v>19.03023073228661</v>
       </c>
       <c r="H11">
-        <v>2.973336711258193</v>
+        <v>2.871305265387172</v>
       </c>
       <c r="I11">
-        <v>3.654188896082775</v>
+        <v>3.433284412401576</v>
       </c>
       <c r="J11">
-        <v>7.427288481190468</v>
+        <v>7.408813075112978</v>
       </c>
       <c r="K11">
-        <v>14.68418452470665</v>
+        <v>13.9870523935742</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.94460285755251</v>
       </c>
       <c r="M11">
-        <v>18.53220232877643</v>
+        <v>9.64673698904725</v>
       </c>
       <c r="N11">
-        <v>7.336868476492</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.53896290283164</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.515085741689559</v>
       </c>
       <c r="Q11">
-        <v>11.78684853043847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.42503723516862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.56467154991712</v>
+        <v>14.39055497952571</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.49707971193377</v>
+        <v>6.607468444519143</v>
       </c>
       <c r="E12">
-        <v>11.99839301223132</v>
+        <v>11.51244544087865</v>
       </c>
       <c r="F12">
-        <v>15.3942770631491</v>
+        <v>14.91860970623204</v>
       </c>
       <c r="G12">
-        <v>16.99957052345814</v>
+        <v>18.46369392238457</v>
       </c>
       <c r="H12">
-        <v>4.302314524322432</v>
+        <v>4.231737078236026</v>
       </c>
       <c r="I12">
-        <v>3.656979338569326</v>
+        <v>3.436647705483812</v>
       </c>
       <c r="J12">
-        <v>7.203864370109729</v>
+        <v>7.137462228605242</v>
       </c>
       <c r="K12">
-        <v>14.36200275578569</v>
+        <v>13.76036500132299</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.83994026217469</v>
       </c>
       <c r="M12">
-        <v>19.1911093332063</v>
+        <v>9.420995325022737</v>
       </c>
       <c r="N12">
-        <v>6.548376911977388</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>19.10200091706808</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.656948637979642</v>
       </c>
       <c r="Q12">
-        <v>11.25123740456865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.91390613955255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.98165511766944</v>
+        <v>13.91149397319074</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.628566995289911</v>
+        <v>6.715353706647859</v>
       </c>
       <c r="E13">
-        <v>12.59980693846062</v>
+        <v>12.09447403321267</v>
       </c>
       <c r="F13">
-        <v>14.68575868369662</v>
+        <v>14.33141656684541</v>
       </c>
       <c r="G13">
-        <v>15.74921361980307</v>
+        <v>17.24105673884179</v>
       </c>
       <c r="H13">
-        <v>5.695749597945938</v>
+        <v>5.640174590459213</v>
       </c>
       <c r="I13">
-        <v>3.688479134633948</v>
+        <v>3.463390762674041</v>
       </c>
       <c r="J13">
-        <v>7.009517735092341</v>
+        <v>7.062711294558392</v>
       </c>
       <c r="K13">
-        <v>14.26759760252207</v>
+        <v>13.72049634949219</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.8510103088097</v>
       </c>
       <c r="M13">
-        <v>19.61179536625636</v>
+        <v>9.346525912189989</v>
       </c>
       <c r="N13">
-        <v>5.796782401324963</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>19.43446785340138</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.777020086535662</v>
       </c>
       <c r="Q13">
-        <v>10.74121020784783</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.50135580748298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.47613331555709</v>
+        <v>13.47395751097645</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.687016104369004</v>
+        <v>6.74587309029765</v>
       </c>
       <c r="E14">
-        <v>13.22740702010388</v>
+        <v>12.68398135471093</v>
       </c>
       <c r="F14">
-        <v>14.14350795958704</v>
+        <v>13.91978722112014</v>
       </c>
       <c r="G14">
-        <v>14.82632637264142</v>
+        <v>16.07683635026147</v>
       </c>
       <c r="H14">
-        <v>6.689737332259665</v>
+        <v>6.640303611651157</v>
       </c>
       <c r="I14">
-        <v>3.725732311177671</v>
+        <v>3.495511942783442</v>
       </c>
       <c r="J14">
-        <v>6.886577076820613</v>
+        <v>7.081144211053682</v>
       </c>
       <c r="K14">
-        <v>14.3226425138381</v>
+        <v>13.78026521821495</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.90319114302432</v>
       </c>
       <c r="M14">
-        <v>19.80935631942229</v>
+        <v>9.376631946956335</v>
       </c>
       <c r="N14">
-        <v>5.278481702578667</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>19.5719528560536</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.152694627509493</v>
       </c>
       <c r="Q14">
-        <v>10.39421050613268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.25163263634884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.30406300092574</v>
+        <v>13.31644487563758</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.685412814718974</v>
+        <v>6.732586918436121</v>
       </c>
       <c r="E15">
-        <v>13.39849966930884</v>
+        <v>12.84410019788755</v>
       </c>
       <c r="F15">
-        <v>13.98831999832738</v>
+        <v>13.81599644226655</v>
       </c>
       <c r="G15">
-        <v>14.57632650115715</v>
+        <v>15.65771050534271</v>
       </c>
       <c r="H15">
-        <v>6.921676965964024</v>
+        <v>6.872884244948688</v>
       </c>
       <c r="I15">
-        <v>3.745434207524023</v>
+        <v>3.513461643359104</v>
       </c>
       <c r="J15">
-        <v>6.861435642108263</v>
+        <v>7.116254340169627</v>
       </c>
       <c r="K15">
-        <v>14.36564539880541</v>
+        <v>13.81697669768988</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.92220065996545</v>
       </c>
       <c r="M15">
-        <v>19.81285898423805</v>
+        <v>9.408130681776834</v>
       </c>
       <c r="N15">
-        <v>5.149163135760697</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>19.56178043988292</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.99762408115379</v>
       </c>
       <c r="Q15">
-        <v>10.31170308561738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.2053110284131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.9360886555633</v>
+        <v>12.92226859381092</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.510915243580373</v>
+        <v>6.519686761939922</v>
       </c>
       <c r="E16">
-        <v>13.22405213621147</v>
+        <v>12.68564789489117</v>
       </c>
       <c r="F16">
-        <v>13.86569497083092</v>
+        <v>13.84640587522756</v>
       </c>
       <c r="G16">
-        <v>14.50519709171268</v>
+        <v>14.67794296575409</v>
       </c>
       <c r="H16">
-        <v>6.724903581507519</v>
+        <v>6.669020114663833</v>
       </c>
       <c r="I16">
-        <v>3.821194052453952</v>
+        <v>3.578001366140785</v>
       </c>
       <c r="J16">
-        <v>6.927642077175082</v>
+        <v>7.417114048413091</v>
       </c>
       <c r="K16">
-        <v>14.5311106548804</v>
+        <v>13.95441124405329</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.93519329480695</v>
       </c>
       <c r="M16">
-        <v>19.29131038613513</v>
+        <v>9.573758004188161</v>
       </c>
       <c r="N16">
-        <v>5.064656797687966</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>19.05646490150616</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.954652060136638</v>
       </c>
       <c r="Q16">
-        <v>10.38785891980294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.38104459917216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.93051626296911</v>
+        <v>12.86228310686555</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.341968296179705</v>
+        <v>6.341645988779114</v>
       </c>
       <c r="E17">
-        <v>12.71828267650114</v>
+        <v>12.21081005840898</v>
       </c>
       <c r="F17">
-        <v>14.0696818297935</v>
+        <v>14.07739129927049</v>
       </c>
       <c r="G17">
-        <v>14.95633735814009</v>
+        <v>14.68919412819404</v>
       </c>
       <c r="H17">
-        <v>6.015453444574249</v>
+        <v>5.949356779122439</v>
       </c>
       <c r="I17">
-        <v>3.860166036725674</v>
+        <v>3.611345516240251</v>
       </c>
       <c r="J17">
-        <v>7.043211328954664</v>
+        <v>7.625858583686669</v>
       </c>
       <c r="K17">
-        <v>14.61943557015928</v>
+        <v>14.03377293490529</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.94014204263784</v>
       </c>
       <c r="M17">
-        <v>18.77380432154244</v>
+        <v>9.672822874767867</v>
       </c>
       <c r="N17">
-        <v>5.276784674629463</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>18.58089458080726</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.259715891483923</v>
       </c>
       <c r="Q17">
-        <v>10.63071742263571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.63801251120238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.26015420675131</v>
+        <v>13.10071215124103</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.158106169224174</v>
+        <v>6.166499035707872</v>
       </c>
       <c r="E18">
-        <v>12.0570307554448</v>
+        <v>11.57910204066377</v>
       </c>
       <c r="F18">
-        <v>14.58732262600192</v>
+        <v>14.54514626348678</v>
       </c>
       <c r="G18">
-        <v>15.92688677214245</v>
+        <v>15.38951922831008</v>
       </c>
       <c r="H18">
-        <v>4.818795170835605</v>
+        <v>4.734991044099061</v>
       </c>
       <c r="I18">
-        <v>3.860288137217524</v>
+        <v>3.608526230204433</v>
       </c>
       <c r="J18">
-        <v>7.219062507864699</v>
+        <v>7.818319471799168</v>
       </c>
       <c r="K18">
-        <v>14.72587385822344</v>
+        <v>14.12519460653042</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.98226963179448</v>
       </c>
       <c r="M18">
-        <v>18.19493641654023</v>
+        <v>9.760254757076243</v>
       </c>
       <c r="N18">
-        <v>5.802115579724684</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>18.07619519876268</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.91234386167524</v>
       </c>
       <c r="Q18">
-        <v>11.05509796833866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.02405619569207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.78563503612843</v>
+        <v>13.51469104882758</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.987464021781665</v>
+        <v>6.01400152842327</v>
       </c>
       <c r="E19">
-        <v>11.68269205642535</v>
+        <v>11.18942214604502</v>
       </c>
       <c r="F19">
-        <v>15.27419612489233</v>
+        <v>15.13981539774966</v>
       </c>
       <c r="G19">
-        <v>17.1689962893033</v>
+        <v>16.4436310110239</v>
       </c>
       <c r="H19">
-        <v>3.439699401141672</v>
+        <v>3.325291991323392</v>
       </c>
       <c r="I19">
-        <v>3.841662558302431</v>
+        <v>3.593323844586257</v>
       </c>
       <c r="J19">
-        <v>7.422695005933535</v>
+        <v>7.995676485026958</v>
       </c>
       <c r="K19">
-        <v>14.93813192919787</v>
+        <v>14.28595735189481</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.0988377855711</v>
       </c>
       <c r="M19">
-        <v>17.6597212921051</v>
+        <v>9.885565868019116</v>
       </c>
       <c r="N19">
-        <v>6.639063039171492</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>17.63158730705354</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.820291901620136</v>
       </c>
       <c r="Q19">
-        <v>11.57157253767725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.47111298060258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.88613060115192</v>
+        <v>14.44831664847302</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.852580874607892</v>
+        <v>5.921270271049677</v>
       </c>
       <c r="E20">
-        <v>12.07920044030831</v>
+        <v>11.45318968887866</v>
       </c>
       <c r="F20">
-        <v>16.45793879080641</v>
+        <v>16.11730882172377</v>
       </c>
       <c r="G20">
-        <v>19.20920223456041</v>
+        <v>18.49469777271753</v>
       </c>
       <c r="H20">
-        <v>2.100219989048675</v>
+        <v>1.937631489688655</v>
       </c>
       <c r="I20">
-        <v>3.743165366027282</v>
+        <v>3.509236487503435</v>
       </c>
       <c r="J20">
-        <v>7.71535229303046</v>
+        <v>8.128043525856469</v>
       </c>
       <c r="K20">
-        <v>15.40389021427135</v>
+        <v>14.59143792350634</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.33696232523805</v>
       </c>
       <c r="M20">
-        <v>17.22180619805779</v>
+        <v>10.12672891038002</v>
       </c>
       <c r="N20">
-        <v>8.091580591055099</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>17.33037475816607</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.32324810695904</v>
       </c>
       <c r="Q20">
-        <v>12.37143466433846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.11290636924642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.77758095125493</v>
+        <v>15.34543080871596</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.103501203056484</v>
+        <v>6.254681379915122</v>
       </c>
       <c r="E21">
-        <v>12.27840487291571</v>
+        <v>11.62514521064954</v>
       </c>
       <c r="F21">
-        <v>17.02267406261978</v>
+        <v>16.31148164609552</v>
       </c>
       <c r="G21">
-        <v>19.95327700825687</v>
+        <v>21.00639798314025</v>
       </c>
       <c r="H21">
-        <v>1.8791898296464</v>
+        <v>1.735574377281817</v>
       </c>
       <c r="I21">
-        <v>3.597098919454594</v>
+        <v>3.38721012417783</v>
       </c>
       <c r="J21">
-        <v>7.716684142667203</v>
+        <v>7.448356490945677</v>
       </c>
       <c r="K21">
-        <v>15.22483181100901</v>
+        <v>14.32483137490629</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.15107566216445</v>
       </c>
       <c r="M21">
-        <v>17.96355795071694</v>
+        <v>9.962328162463336</v>
       </c>
       <c r="N21">
-        <v>8.59596923278275</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>18.07856597703265</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.81921683305254</v>
       </c>
       <c r="Q21">
-        <v>12.53260095858484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.99440938463335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.32077283640289</v>
+        <v>15.90003105478021</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.267268075052472</v>
+        <v>6.473581654213898</v>
       </c>
       <c r="E22">
-        <v>12.37717196366169</v>
+        <v>11.71571928354129</v>
       </c>
       <c r="F22">
-        <v>17.3690051210877</v>
+        <v>16.40506908311745</v>
       </c>
       <c r="G22">
-        <v>20.39911534874123</v>
+        <v>22.70529310667302</v>
       </c>
       <c r="H22">
-        <v>1.751269094627488</v>
+        <v>1.619905090557426</v>
       </c>
       <c r="I22">
-        <v>3.496580788260035</v>
+        <v>3.299656183348223</v>
       </c>
       <c r="J22">
-        <v>7.713984756034703</v>
+        <v>7.048627084617029</v>
       </c>
       <c r="K22">
-        <v>15.09760550258188</v>
+        <v>14.14090047373337</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.03081634539144</v>
       </c>
       <c r="M22">
-        <v>18.44274550460012</v>
+        <v>9.852898664876477</v>
       </c>
       <c r="N22">
-        <v>8.843354839342819</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>18.55460076785539</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.058674700287133</v>
       </c>
       <c r="Q22">
-        <v>12.62663838179488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.89280943857162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.05768218893956</v>
+        <v>15.62247625182825</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.176100952711513</v>
+        <v>6.346025177327075</v>
       </c>
       <c r="E23">
-        <v>12.33807803400816</v>
+        <v>11.6772931409175</v>
       </c>
       <c r="F23">
-        <v>17.20583610125954</v>
+        <v>16.40899710831808</v>
       </c>
       <c r="G23">
-        <v>20.19981094662349</v>
+        <v>21.63345028149484</v>
       </c>
       <c r="H23">
-        <v>1.818386701655454</v>
+        <v>1.680087623836346</v>
       </c>
       <c r="I23">
-        <v>3.539801011554276</v>
+        <v>3.333621509916138</v>
       </c>
       <c r="J23">
-        <v>7.721993392203279</v>
+        <v>7.316311900670793</v>
       </c>
       <c r="K23">
-        <v>15.18523590770896</v>
+        <v>14.26005893095755</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.10667938464845</v>
       </c>
       <c r="M23">
-        <v>18.16859461277591</v>
+        <v>9.930304010339892</v>
       </c>
       <c r="N23">
-        <v>8.702587196180696</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>18.28984000085556</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.925616788139717</v>
       </c>
       <c r="Q23">
-        <v>12.59292876320034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.98787270998825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.97360496346194</v>
+        <v>14.52068544490298</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.825530863537414</v>
+        <v>5.896019439672456</v>
       </c>
       <c r="E24">
-        <v>12.164662587448</v>
+        <v>11.52114442604003</v>
       </c>
       <c r="F24">
-        <v>16.56172532318453</v>
+        <v>16.21012551748362</v>
       </c>
       <c r="G24">
-        <v>19.39965926847248</v>
+        <v>18.64855663854475</v>
       </c>
       <c r="H24">
-        <v>2.07981903705757</v>
+        <v>1.916876122975283</v>
       </c>
       <c r="I24">
-        <v>3.724828153290569</v>
+        <v>3.487980052355344</v>
       </c>
       <c r="J24">
-        <v>7.749250963772194</v>
+        <v>8.161148844955445</v>
       </c>
       <c r="K24">
-        <v>15.48937486969538</v>
+        <v>14.6565282816656</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.38481574520016</v>
       </c>
       <c r="M24">
-        <v>17.12756586726462</v>
+        <v>10.17787353749891</v>
       </c>
       <c r="N24">
-        <v>8.166418081543309</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>17.24704448379335</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.403720159175938</v>
       </c>
       <c r="Q24">
-        <v>12.45484716293714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.18716785400063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.7013685462753</v>
+        <v>13.29982073962566</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.421773340320681</v>
+        <v>5.464873778616335</v>
       </c>
       <c r="E25">
-        <v>11.96985452134451</v>
+        <v>11.35446454882458</v>
       </c>
       <c r="F25">
-        <v>15.88981684848288</v>
+        <v>15.63996884193779</v>
       </c>
       <c r="G25">
-        <v>18.57812632796161</v>
+        <v>17.69252526701173</v>
       </c>
       <c r="H25">
-        <v>2.374681472838067</v>
+        <v>2.190466658274398</v>
       </c>
       <c r="I25">
-        <v>3.9352273524403</v>
+        <v>3.6689514330166</v>
       </c>
       <c r="J25">
-        <v>7.795197780033111</v>
+        <v>8.268173652147187</v>
       </c>
       <c r="K25">
-        <v>15.82851713902551</v>
+        <v>15.02023944266634</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.66986288413844</v>
       </c>
       <c r="M25">
-        <v>15.93202678193974</v>
+        <v>10.41956400299716</v>
       </c>
       <c r="N25">
-        <v>7.549950827162975</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.97322965644528</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.775429027204998</v>
       </c>
       <c r="Q25">
-        <v>12.34187818943905</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.14880651555005</v>
       </c>
     </row>
   </sheetData>
